--- a/RoadMap/NewMap_Excel/Map6_2.xlsx
+++ b/RoadMap/NewMap_Excel/Map6_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01549758-2859-4092-8002-6071A55050A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBFE889-4F4E-4C5B-9B34-E24D96D2C132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{28C75793-38F3-4E5C-9AF9-177F310CD9E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="38">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="2"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Me</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Pr</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -150,7 +146,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Jr</t>
+    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -158,7 +154,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Jr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Me</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -373,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,9 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,13 +474,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D7DA22-7C5D-4830-9B0D-0A1F72FB06A2}">
   <dimension ref="A1:AH752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M325" sqref="M325"/>
+    <sheetView tabSelected="1" topLeftCell="A676" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K657" sqref="K657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -932,7 +930,7 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -972,7 +970,7 @@
       <c r="AH2" s="4"/>
     </row>
     <row r="3" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1012,7 +1010,7 @@
       <c r="AH3" s="4"/>
     </row>
     <row r="4" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1052,7 +1050,7 @@
       <c r="AH4" s="4"/>
     </row>
     <row r="5" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1092,7 +1090,7 @@
       <c r="AH5" s="4"/>
     </row>
     <row r="6" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1132,7 +1130,7 @@
       <c r="AH6" s="4"/>
     </row>
     <row r="7" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1172,7 +1170,7 @@
       <c r="AH7" s="4"/>
     </row>
     <row r="8" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1212,7 +1210,7 @@
       <c r="AH8" s="4"/>
     </row>
     <row r="9" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1252,7 +1250,7 @@
       <c r="AH9" s="4"/>
     </row>
     <row r="10" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1292,7 +1290,7 @@
       <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1332,7 +1330,7 @@
       <c r="AH11" s="4"/>
     </row>
     <row r="12" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1372,7 +1370,7 @@
       <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1412,7 +1410,7 @@
       <c r="AH13" s="4"/>
     </row>
     <row r="14" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1452,7 +1450,7 @@
       <c r="AH14" s="4"/>
     </row>
     <row r="15" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1492,7 +1490,7 @@
       <c r="AH15" s="4"/>
     </row>
     <row r="16" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1532,7 +1530,7 @@
       <c r="AH16" s="4"/>
     </row>
     <row r="17" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1572,7 +1570,7 @@
       <c r="AH17" s="4"/>
     </row>
     <row r="18" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1612,7 +1610,7 @@
       <c r="AH18" s="4"/>
     </row>
     <row r="19" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1652,7 +1650,7 @@
       <c r="AH19" s="4"/>
     </row>
     <row r="20" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1692,7 +1690,7 @@
       <c r="AH20" s="4"/>
     </row>
     <row r="21" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1732,7 +1730,7 @@
       <c r="AH21" s="4"/>
     </row>
     <row r="22" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1772,7 +1770,7 @@
       <c r="AH22" s="4"/>
     </row>
     <row r="23" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1812,7 +1810,7 @@
       <c r="AH23" s="4"/>
     </row>
     <row r="24" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1852,7 +1850,7 @@
       <c r="AH24" s="4"/>
     </row>
     <row r="25" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1892,7 +1890,7 @@
       <c r="AH25" s="4"/>
     </row>
     <row r="26" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1932,7 +1930,7 @@
       <c r="AH26" s="4"/>
     </row>
     <row r="27" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1972,7 +1970,7 @@
       <c r="AH27" s="4"/>
     </row>
     <row r="28" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2012,7 +2010,7 @@
       <c r="AH28" s="4"/>
     </row>
     <row r="29" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2052,7 +2050,7 @@
       <c r="AH29" s="4"/>
     </row>
     <row r="30" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2092,7 +2090,7 @@
       <c r="AH30" s="4"/>
     </row>
     <row r="31" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2132,7 +2130,7 @@
       <c r="AH31" s="4"/>
     </row>
     <row r="32" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2172,7 +2170,7 @@
       <c r="AH32" s="4"/>
     </row>
     <row r="33" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2212,7 +2210,7 @@
       <c r="AH33" s="4"/>
     </row>
     <row r="34" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2252,7 +2250,7 @@
       <c r="AH34" s="4"/>
     </row>
     <row r="35" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2292,7 +2290,7 @@
       <c r="AH35" s="4"/>
     </row>
     <row r="36" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2332,7 +2330,7 @@
       <c r="AH36" s="4"/>
     </row>
     <row r="37" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -2372,7 +2370,7 @@
       <c r="AH37" s="4"/>
     </row>
     <row r="38" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="31">
+      <c r="A38" s="30">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -2412,7 +2410,7 @@
       <c r="AH38" s="4"/>
     </row>
     <row r="39" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="6"/>
@@ -2450,7 +2448,7 @@
       <c r="AH39" s="4"/>
     </row>
     <row r="40" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="27">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="6"/>
@@ -2488,7 +2486,7 @@
       <c r="AH40" s="4"/>
     </row>
     <row r="41" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
@@ -2526,7 +2524,7 @@
       <c r="AH41" s="4"/>
     </row>
     <row r="42" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="27">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="6"/>
@@ -2564,7 +2562,7 @@
       <c r="AH42" s="4"/>
     </row>
     <row r="43" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="27">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="6"/>
@@ -2602,7 +2600,7 @@
       <c r="AH43" s="4"/>
     </row>
     <row r="44" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="6"/>
@@ -2612,7 +2610,7 @@
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="26"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="4" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2618,7 @@
       <c r="J44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="26"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="4" t="s">
         <v>23</v>
       </c>
@@ -2648,7 +2646,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2688,7 +2686,7 @@
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2728,7 +2726,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="6"/>
@@ -2766,7 +2764,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
@@ -2804,7 +2802,7 @@
       <c r="AH48" s="4"/>
     </row>
     <row r="49" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <v>48</v>
       </c>
       <c r="B49" s="6"/>
@@ -2842,7 +2840,7 @@
       <c r="AH49" s="4"/>
     </row>
     <row r="50" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="27">
+      <c r="A50" s="26">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
@@ -2882,7 +2880,7 @@
       <c r="AH50" s="4"/>
     </row>
     <row r="51" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="27">
+      <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="6"/>
@@ -2920,7 +2918,7 @@
       <c r="AH51" s="4"/>
     </row>
     <row r="52" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="27">
+      <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="6"/>
@@ -2932,7 +2930,7 @@
       <c r="H52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="26"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="4" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +2960,7 @@
       <c r="AH52" s="4"/>
     </row>
     <row r="53" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="27">
+      <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3002,7 +3000,7 @@
       <c r="AH53" s="4"/>
     </row>
     <row r="54" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="27">
+      <c r="A54" s="26">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3042,7 +3040,7 @@
       <c r="AH54" s="4"/>
     </row>
     <row r="55" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="27">
+      <c r="A55" s="26">
         <v>54</v>
       </c>
       <c r="B55" s="6"/>
@@ -3080,7 +3078,7 @@
       <c r="AH55" s="4"/>
     </row>
     <row r="56" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="27">
+      <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="6"/>
@@ -3118,7 +3116,7 @@
       <c r="AH56" s="4"/>
     </row>
     <row r="57" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="27">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="6"/>
@@ -3156,7 +3154,7 @@
       <c r="AH57" s="4"/>
     </row>
     <row r="58" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="6"/>
@@ -3194,7 +3192,7 @@
       <c r="AH58" s="4"/>
     </row>
     <row r="59" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="27">
+      <c r="A59" s="26">
         <v>58</v>
       </c>
       <c r="B59" s="6"/>
@@ -3232,7 +3230,7 @@
       <c r="AH59" s="4"/>
     </row>
     <row r="60" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="27">
+      <c r="A60" s="26">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3282,7 +3280,7 @@
       <c r="AH60" s="4"/>
     </row>
     <row r="61" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="27">
+      <c r="A61" s="26">
         <v>60</v>
       </c>
       <c r="B61" s="6"/>
@@ -3320,7 +3318,7 @@
       <c r="AH61" s="4"/>
     </row>
     <row r="62" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="27">
+      <c r="A62" s="26">
         <v>61</v>
       </c>
       <c r="B62" s="6"/>
@@ -3358,7 +3356,7 @@
       <c r="AH62" s="4"/>
     </row>
     <row r="63" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="27">
+      <c r="A63" s="26">
         <v>62</v>
       </c>
       <c r="B63" s="6"/>
@@ -3367,7 +3365,7 @@
       <c r="E63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="4" t="s">
         <v>21</v>
       </c>
@@ -3377,7 +3375,7 @@
       <c r="K63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="26"/>
+      <c r="L63" s="25"/>
       <c r="M63" s="4" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3402,7 @@
       <c r="AH63" s="4"/>
     </row>
     <row r="64" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="27">
+      <c r="A64" s="26">
         <v>63</v>
       </c>
       <c r="B64" s="6"/>
@@ -3442,24 +3440,20 @@
       <c r="AH64" s="4"/>
     </row>
     <row r="65" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27">
+      <c r="A65" s="26">
         <v>64</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="G65" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H65" s="20"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="4" t="s">
-        <v>29</v>
+      <c r="K65" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="7"/>
@@ -3484,24 +3478,20 @@
       <c r="AH65" s="4"/>
     </row>
     <row r="66" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="27">
+      <c r="A66" s="26">
         <v>65</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H66" s="20"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="4" t="s">
-        <v>29</v>
+      <c r="K66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="7"/>
@@ -3526,28 +3516,24 @@
       <c r="AH66" s="4"/>
     </row>
     <row r="67" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="27">
+      <c r="A67" s="26">
         <v>66</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="G67" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="4" t="s">
-        <v>29</v>
+      <c r="K67" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="4"/>
@@ -3570,24 +3556,20 @@
       <c r="AH67" s="4"/>
     </row>
     <row r="68" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="27">
+      <c r="A68" s="26">
         <v>67</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="G68" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="4" t="s">
-        <v>29</v>
+      <c r="K68" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="7"/>
@@ -3612,28 +3594,24 @@
       <c r="AH68" s="4"/>
     </row>
     <row r="69" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="27">
+      <c r="A69" s="26">
         <v>68</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="4" t="s">
-        <v>29</v>
+      <c r="K69" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="4"/>
@@ -3656,24 +3634,20 @@
       <c r="AH69" s="4"/>
     </row>
     <row r="70" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="27">
+      <c r="A70" s="26">
         <v>69</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="G70" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="4" t="s">
-        <v>29</v>
+      <c r="K70" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="7"/>
@@ -3698,7 +3672,7 @@
       <c r="AH70" s="4"/>
     </row>
     <row r="71" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="27">
+      <c r="A71" s="26">
         <v>70</v>
       </c>
       <c r="B71" s="6"/>
@@ -3736,7 +3710,7 @@
       <c r="AH71" s="4"/>
     </row>
     <row r="72" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="27">
+      <c r="A72" s="26">
         <v>71</v>
       </c>
       <c r="B72" s="6"/>
@@ -3774,14 +3748,13 @@
       <c r="AH72" s="4"/>
     </row>
     <row r="73" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="27">
+      <c r="A73" s="26">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="4"/>
@@ -3793,10 +3766,9 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O73" s="19"/>
       <c r="P73" s="6" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3792,7 @@
       <c r="AH73" s="4"/>
     </row>
     <row r="74" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="27">
+      <c r="A74" s="26">
         <v>73</v>
       </c>
       <c r="B74" s="6"/>
@@ -3849,16 +3821,15 @@
       <c r="AH74" s="4"/>
     </row>
     <row r="75" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="27">
+      <c r="A75" s="26">
         <v>74</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="18"/>
       <c r="G75" s="4" t="s">
         <v>15</v>
       </c>
@@ -3868,8 +3839,7 @@
       <c r="K75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N75" s="4"/>
@@ -3895,7 +3865,7 @@
       <c r="AH75" s="4"/>
     </row>
     <row r="76" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="27">
+      <c r="A76" s="26">
         <v>75</v>
       </c>
       <c r="B76" s="6"/>
@@ -3924,18 +3894,14 @@
       <c r="AH76" s="4"/>
     </row>
     <row r="77" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="31">
+      <c r="A77" s="30">
         <v>76</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="H77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P77" s="35"/>
+      <c r="B77" s="32"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="P77" s="32"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
@@ -3956,7 +3922,7 @@
       <c r="AH77" s="4"/>
     </row>
     <row r="78" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="27">
+      <c r="A78" s="26">
         <v>77</v>
       </c>
       <c r="B78" s="6"/>
@@ -3994,16 +3960,15 @@
       <c r="AH78" s="4"/>
     </row>
     <row r="79" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="27">
+      <c r="A79" s="26">
         <v>78</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="18"/>
       <c r="G79" s="4" t="s">
         <v>15</v>
       </c>
@@ -4013,8 +3978,7 @@
       <c r="K79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L79" s="18"/>
-      <c r="M79" s="4" t="s">
+      <c r="L79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N79" s="4"/>
@@ -4040,7 +4004,7 @@
       <c r="AH79" s="4"/>
     </row>
     <row r="80" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="27">
+      <c r="A80" s="26">
         <v>79</v>
       </c>
       <c r="B80" s="6"/>
@@ -4078,14 +4042,13 @@
       <c r="AH80" s="4"/>
     </row>
     <row r="81" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="27">
+      <c r="A81" s="26">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="4"/>
@@ -4097,10 +4060,9 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O81" s="19"/>
       <c r="P81" s="6" t="s">
         <v>15</v>
       </c>
@@ -4124,7 +4086,7 @@
       <c r="AH81" s="4"/>
     </row>
     <row r="82" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="27">
+      <c r="A82" s="26">
         <v>81</v>
       </c>
       <c r="B82" s="6"/>
@@ -4162,7 +4124,7 @@
       <c r="AH82" s="4"/>
     </row>
     <row r="83" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="27">
+      <c r="A83" s="26">
         <v>82</v>
       </c>
       <c r="B83" s="6"/>
@@ -4200,7 +4162,7 @@
       <c r="AH83" s="4"/>
     </row>
     <row r="84" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="27">
+      <c r="A84" s="26">
         <v>83</v>
       </c>
       <c r="B84" s="6"/>
@@ -4235,7 +4197,7 @@
       <c r="AH84" s="4"/>
     </row>
     <row r="85" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>84</v>
       </c>
       <c r="B85" s="6"/>
@@ -4245,11 +4207,11 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I85" s="26"/>
-      <c r="J85" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -4277,7 +4239,7 @@
       <c r="AH85" s="4"/>
     </row>
     <row r="86" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="27">
+      <c r="A86" s="26">
         <v>85</v>
       </c>
       <c r="B86" s="6"/>
@@ -4315,7 +4277,7 @@
       <c r="AH86" s="4"/>
     </row>
     <row r="87" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="27">
+      <c r="A87" s="26">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4355,7 +4317,7 @@
       <c r="AH87" s="4"/>
     </row>
     <row r="88" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="27">
+      <c r="A88" s="26">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4395,7 +4357,7 @@
       <c r="AH88" s="4"/>
     </row>
     <row r="89" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="27">
+      <c r="A89" s="26">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -4435,7 +4397,7 @@
       <c r="AH89" s="4"/>
     </row>
     <row r="90" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="27">
+      <c r="A90" s="26">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4475,7 +4437,7 @@
       <c r="AH90" s="4"/>
     </row>
     <row r="91" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="27">
+      <c r="A91" s="26">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -4515,7 +4477,7 @@
       <c r="AH91" s="4"/>
     </row>
     <row r="92" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="27">
+      <c r="A92" s="26">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -4555,7 +4517,7 @@
       <c r="AH92" s="4"/>
     </row>
     <row r="93" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="27">
+      <c r="A93" s="26">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -4595,7 +4557,7 @@
       <c r="AH93" s="4"/>
     </row>
     <row r="94" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="27">
+      <c r="A94" s="26">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -4635,7 +4597,7 @@
       <c r="AH94" s="4"/>
     </row>
     <row r="95" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="27">
+      <c r="A95" s="26">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -4675,7 +4637,7 @@
       <c r="AH95" s="4"/>
     </row>
     <row r="96" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="27">
+      <c r="A96" s="26">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4715,7 +4677,7 @@
       <c r="AH96" s="4"/>
     </row>
     <row r="97" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="27">
+      <c r="A97" s="26">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -4755,7 +4717,7 @@
       <c r="AH97" s="4"/>
     </row>
     <row r="98" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="27">
+      <c r="A98" s="26">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -4795,7 +4757,7 @@
       <c r="AH98" s="4"/>
     </row>
     <row r="99" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="27">
+      <c r="A99" s="26">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -4835,7 +4797,7 @@
       <c r="AH99" s="4"/>
     </row>
     <row r="100" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="27">
+      <c r="A100" s="26">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -4875,7 +4837,7 @@
       <c r="AH100" s="4"/>
     </row>
     <row r="101" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="27">
+      <c r="A101" s="26">
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -4915,7 +4877,7 @@
       <c r="AH101" s="4"/>
     </row>
     <row r="102" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="27">
+      <c r="A102" s="26">
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -4955,7 +4917,7 @@
       <c r="AH102" s="4"/>
     </row>
     <row r="103" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="27">
+      <c r="A103" s="26">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -4995,7 +4957,7 @@
       <c r="AH103" s="4"/>
     </row>
     <row r="104" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="27">
+      <c r="A104" s="26">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -5035,7 +4997,7 @@
       <c r="AH104" s="4"/>
     </row>
     <row r="105" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="27">
+      <c r="A105" s="26">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -5075,7 +5037,7 @@
       <c r="AH105" s="4"/>
     </row>
     <row r="106" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="27">
+      <c r="A106" s="26">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -5115,7 +5077,7 @@
       <c r="AH106" s="4"/>
     </row>
     <row r="107" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="27">
+      <c r="A107" s="26">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -5155,7 +5117,7 @@
       <c r="AH107" s="4"/>
     </row>
     <row r="108" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="27">
+      <c r="A108" s="26">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -5195,7 +5157,7 @@
       <c r="AH108" s="4"/>
     </row>
     <row r="109" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="27">
+      <c r="A109" s="26">
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -5235,7 +5197,7 @@
       <c r="AH109" s="4"/>
     </row>
     <row r="110" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="27">
+      <c r="A110" s="26">
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -5275,7 +5237,7 @@
       <c r="AH110" s="4"/>
     </row>
     <row r="111" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="27">
+      <c r="A111" s="26">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -5315,7 +5277,7 @@
       <c r="AH111" s="4"/>
     </row>
     <row r="112" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="27">
+      <c r="A112" s="26">
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -5355,7 +5317,7 @@
       <c r="AH112" s="4"/>
     </row>
     <row r="113" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="27">
+      <c r="A113" s="26">
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -5395,7 +5357,7 @@
       <c r="AH113" s="4"/>
     </row>
     <row r="114" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A114" s="27">
+      <c r="A114" s="26">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -5435,7 +5397,7 @@
       <c r="AH114" s="4"/>
     </row>
     <row r="115" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A115" s="27">
+      <c r="A115" s="26">
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -5475,7 +5437,7 @@
       <c r="AH115" s="4"/>
     </row>
     <row r="116" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="27">
+      <c r="A116" s="26">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -5515,7 +5477,7 @@
       <c r="AH116" s="4"/>
     </row>
     <row r="117" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="27">
+      <c r="A117" s="26">
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -5555,7 +5517,7 @@
       <c r="AH117" s="4"/>
     </row>
     <row r="118" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="27">
+      <c r="A118" s="26">
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -5595,7 +5557,7 @@
       <c r="AH118" s="4"/>
     </row>
     <row r="119" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A119" s="27">
+      <c r="A119" s="26">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -5635,7 +5597,7 @@
       <c r="AH119" s="4"/>
     </row>
     <row r="120" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A120" s="27">
+      <c r="A120" s="26">
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -5675,7 +5637,7 @@
       <c r="AH120" s="4"/>
     </row>
     <row r="121" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="27">
+      <c r="A121" s="26">
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -5715,7 +5677,7 @@
       <c r="AH121" s="4"/>
     </row>
     <row r="122" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A122" s="27">
+      <c r="A122" s="26">
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -5755,7 +5717,7 @@
       <c r="AH122" s="4"/>
     </row>
     <row r="123" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A123" s="27">
+      <c r="A123" s="26">
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -5795,7 +5757,7 @@
       <c r="AH123" s="4"/>
     </row>
     <row r="124" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A124" s="27">
+      <c r="A124" s="26">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -5835,7 +5797,7 @@
       <c r="AH124" s="4"/>
     </row>
     <row r="125" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A125" s="27">
+      <c r="A125" s="26">
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -5875,7 +5837,7 @@
       <c r="AH125" s="4"/>
     </row>
     <row r="126" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A126" s="27">
+      <c r="A126" s="26">
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -5915,7 +5877,7 @@
       <c r="AH126" s="4"/>
     </row>
     <row r="127" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A127" s="27">
+      <c r="A127" s="26">
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -5955,7 +5917,7 @@
       <c r="AH127" s="4"/>
     </row>
     <row r="128" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A128" s="27">
+      <c r="A128" s="26">
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -5995,7 +5957,7 @@
       <c r="AH128" s="4"/>
     </row>
     <row r="129" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A129" s="27">
+      <c r="A129" s="26">
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -6035,7 +5997,7 @@
       <c r="AH129" s="4"/>
     </row>
     <row r="130" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A130" s="27">
+      <c r="A130" s="26">
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -6075,7 +6037,7 @@
       <c r="AH130" s="4"/>
     </row>
     <row r="131" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="27">
+      <c r="A131" s="26">
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -6115,7 +6077,7 @@
       <c r="AH131" s="4"/>
     </row>
     <row r="132" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A132" s="27">
+      <c r="A132" s="26">
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -6155,7 +6117,7 @@
       <c r="AH132" s="4"/>
     </row>
     <row r="133" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A133" s="27">
+      <c r="A133" s="26">
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -6195,7 +6157,7 @@
       <c r="AH133" s="4"/>
     </row>
     <row r="134" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="27">
+      <c r="A134" s="26">
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -6235,7 +6197,7 @@
       <c r="AH134" s="4"/>
     </row>
     <row r="135" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A135" s="27">
+      <c r="A135" s="26">
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -6275,7 +6237,7 @@
       <c r="AH135" s="4"/>
     </row>
     <row r="136" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A136" s="27">
+      <c r="A136" s="26">
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -6315,7 +6277,7 @@
       <c r="AH136" s="4"/>
     </row>
     <row r="137" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A137" s="27">
+      <c r="A137" s="26">
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -6355,7 +6317,7 @@
       <c r="AH137" s="4"/>
     </row>
     <row r="138" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A138" s="27">
+      <c r="A138" s="26">
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -6395,7 +6357,7 @@
       <c r="AH138" s="4"/>
     </row>
     <row r="139" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="27">
+      <c r="A139" s="26">
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -6435,7 +6397,7 @@
       <c r="AH139" s="4"/>
     </row>
     <row r="140" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="27">
+      <c r="A140" s="26">
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -6475,7 +6437,7 @@
       <c r="AH140" s="4"/>
     </row>
     <row r="141" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A141" s="27">
+      <c r="A141" s="26">
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -6515,7 +6477,7 @@
       <c r="AH141" s="4"/>
     </row>
     <row r="142" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A142" s="27">
+      <c r="A142" s="26">
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -6555,7 +6517,7 @@
       <c r="AH142" s="4"/>
     </row>
     <row r="143" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A143" s="27">
+      <c r="A143" s="26">
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -6595,7 +6557,7 @@
       <c r="AH143" s="4"/>
     </row>
     <row r="144" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A144" s="27">
+      <c r="A144" s="26">
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -6635,7 +6597,7 @@
       <c r="AH144" s="4"/>
     </row>
     <row r="145" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A145" s="27">
+      <c r="A145" s="26">
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -6675,7 +6637,7 @@
       <c r="AH145" s="4"/>
     </row>
     <row r="146" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="27">
+      <c r="A146" s="26">
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -6715,7 +6677,7 @@
       <c r="AH146" s="4"/>
     </row>
     <row r="147" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="27">
+      <c r="A147" s="26">
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -6755,7 +6717,7 @@
       <c r="AH147" s="4"/>
     </row>
     <row r="148" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A148" s="27">
+      <c r="A148" s="26">
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -6795,7 +6757,7 @@
       <c r="AH148" s="4"/>
     </row>
     <row r="149" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A149" s="27">
+      <c r="A149" s="26">
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -6835,7 +6797,7 @@
       <c r="AH149" s="4"/>
     </row>
     <row r="150" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A150" s="27">
+      <c r="A150" s="26">
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -6875,7 +6837,7 @@
       <c r="AH150" s="4"/>
     </row>
     <row r="151" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A151" s="27">
+      <c r="A151" s="26">
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -6915,7 +6877,7 @@
       <c r="AH151" s="4"/>
     </row>
     <row r="152" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A152" s="27">
+      <c r="A152" s="26">
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
@@ -6955,7 +6917,7 @@
       <c r="AH152" s="4"/>
     </row>
     <row r="153" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A153" s="27">
+      <c r="A153" s="26">
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -6995,7 +6957,7 @@
       <c r="AH153" s="4"/>
     </row>
     <row r="154" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A154" s="27">
+      <c r="A154" s="26">
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -7035,7 +6997,7 @@
       <c r="AH154" s="4"/>
     </row>
     <row r="155" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A155" s="27">
+      <c r="A155" s="26">
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -7075,7 +7037,7 @@
       <c r="AH155" s="4"/>
     </row>
     <row r="156" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A156" s="27">
+      <c r="A156" s="26">
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -7115,7 +7077,7 @@
       <c r="AH156" s="4"/>
     </row>
     <row r="157" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A157" s="27">
+      <c r="A157" s="26">
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -7155,7 +7117,7 @@
       <c r="AH157" s="4"/>
     </row>
     <row r="158" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A158" s="27">
+      <c r="A158" s="26">
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -7195,7 +7157,7 @@
       <c r="AH158" s="4"/>
     </row>
     <row r="159" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A159" s="27">
+      <c r="A159" s="26">
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -7235,7 +7197,7 @@
       <c r="AH159" s="4"/>
     </row>
     <row r="160" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A160" s="27">
+      <c r="A160" s="26">
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -7275,7 +7237,7 @@
       <c r="AH160" s="4"/>
     </row>
     <row r="161" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A161" s="27">
+      <c r="A161" s="26">
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -7315,7 +7277,7 @@
       <c r="AH161" s="4"/>
     </row>
     <row r="162" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -7355,7 +7317,7 @@
       <c r="AH162" s="4"/>
     </row>
     <row r="163" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A163" s="27">
+      <c r="A163" s="26">
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -7395,7 +7357,7 @@
       <c r="AH163" s="4"/>
     </row>
     <row r="164" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A164" s="27">
+      <c r="A164" s="26">
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -7435,7 +7397,7 @@
       <c r="AH164" s="4"/>
     </row>
     <row r="165" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A165" s="27">
+      <c r="A165" s="26">
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -7475,7 +7437,7 @@
       <c r="AH165" s="4"/>
     </row>
     <row r="166" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A166" s="27">
+      <c r="A166" s="26">
         <v>165</v>
       </c>
       <c r="B166" s="6"/>
@@ -7513,7 +7475,7 @@
       <c r="AH166" s="4"/>
     </row>
     <row r="167" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A167" s="27">
+      <c r="A167" s="26">
         <v>166</v>
       </c>
       <c r="B167" s="6"/>
@@ -7551,7 +7513,7 @@
       <c r="AH167" s="4"/>
     </row>
     <row r="168" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A168" s="27">
+      <c r="A168" s="26">
         <v>167</v>
       </c>
       <c r="B168" s="6"/>
@@ -7589,7 +7551,7 @@
       <c r="AH168" s="4"/>
     </row>
     <row r="169" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A169" s="27">
+      <c r="A169" s="26">
         <v>168</v>
       </c>
       <c r="B169" s="6"/>
@@ -7627,16 +7589,12 @@
       <c r="AH169" s="4"/>
     </row>
     <row r="170" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A170" s="27">
+      <c r="A170" s="26">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="H170" s="4" t="s">
         <v>16</v>
@@ -7646,13 +7604,9 @@
         <v>15</v>
       </c>
       <c r="M170" s="4"/>
-      <c r="N170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O170" s="19"/>
-      <c r="P170" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="N170" s="4"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="6"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
@@ -7673,16 +7627,12 @@
       <c r="AH170" s="4"/>
     </row>
     <row r="171" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A171" s="27">
+      <c r="A171" s="26">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="H171" s="4" t="s">
         <v>16</v>
@@ -7692,13 +7642,9 @@
         <v>15</v>
       </c>
       <c r="M171" s="4"/>
-      <c r="N171" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O171" s="19"/>
-      <c r="P171" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="N171" s="4"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="6"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
@@ -7719,16 +7665,12 @@
       <c r="AH171" s="4"/>
     </row>
     <row r="172" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A172" s="27">
+      <c r="A172" s="26">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="17"/>
-      <c r="D172" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="H172" s="4" t="s">
         <v>16</v>
@@ -7738,13 +7680,9 @@
         <v>15</v>
       </c>
       <c r="M172" s="4"/>
-      <c r="N172" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O172" s="19"/>
-      <c r="P172" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="N172" s="4"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="6"/>
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
@@ -7765,16 +7703,12 @@
       <c r="AH172" s="4"/>
     </row>
     <row r="173" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A173" s="27">
+      <c r="A173" s="26">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
       <c r="F173" s="4"/>
       <c r="H173" s="4" t="s">
         <v>16</v>
@@ -7784,13 +7718,9 @@
         <v>15</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="N173" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O173" s="19"/>
-      <c r="P173" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="N173" s="4"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="6"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
@@ -7811,18 +7741,16 @@
       <c r="AH173" s="4"/>
     </row>
     <row r="174" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A174" s="27">
+      <c r="A174" s="26">
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F174" s="4"/>
+      <c r="D174" s="4"/>
       <c r="H174" s="4" t="s">
         <v>16</v>
       </c>
@@ -7830,12 +7758,10 @@
       <c r="J174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4" t="s">
+      <c r="N174" s="4"/>
+      <c r="O174" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N174" s="18"/>
-      <c r="O174" s="19"/>
       <c r="P174" s="6" t="s">
         <v>15</v>
       </c>
@@ -7859,18 +7785,16 @@
       <c r="AH174" s="4"/>
     </row>
     <row r="175" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F175" s="4"/>
+      <c r="D175" s="4"/>
       <c r="H175" s="4" t="s">
         <v>16</v>
       </c>
@@ -7878,12 +7802,10 @@
       <c r="J175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4" t="s">
+      <c r="N175" s="4"/>
+      <c r="O175" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N175" s="18"/>
-      <c r="O175" s="19"/>
       <c r="P175" s="6" t="s">
         <v>15</v>
       </c>
@@ -7907,18 +7829,16 @@
       <c r="AH175" s="4"/>
     </row>
     <row r="176" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A176" s="27">
+      <c r="A176" s="26">
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="17"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F176" s="4"/>
+      <c r="D176" s="4"/>
       <c r="H176" s="4" t="s">
         <v>16</v>
       </c>
@@ -7926,12 +7846,10 @@
       <c r="J176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4" t="s">
+      <c r="N176" s="4"/>
+      <c r="O176" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N176" s="18"/>
-      <c r="O176" s="19"/>
       <c r="P176" s="6" t="s">
         <v>15</v>
       </c>
@@ -7955,27 +7873,23 @@
       <c r="AH176" s="4"/>
     </row>
     <row r="177" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A177" s="27">
+      <c r="A177" s="26">
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G177" s="4"/>
+      <c r="E177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="M177" s="4" t="s">
+      <c r="M177" s="4"/>
+      <c r="O177" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N177" s="18"/>
-      <c r="O177" s="19"/>
       <c r="P177" s="6" t="s">
         <v>15</v>
       </c>
@@ -7999,29 +7913,25 @@
       <c r="AH177" s="4"/>
     </row>
     <row r="178" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A178" s="27">
+      <c r="A178" s="26">
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="4" t="s">
+      <c r="C178" s="18"/>
+      <c r="D178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G178" s="4"/>
+      <c r="E178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4" t="s">
+      <c r="M178" s="4"/>
+      <c r="N178" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="19"/>
+      <c r="O178" s="18"/>
       <c r="P178" s="6" t="s">
         <v>15</v>
       </c>
@@ -8045,29 +7955,25 @@
       <c r="AH178" s="4"/>
     </row>
     <row r="179" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A179" s="27">
+      <c r="A179" s="26">
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="17"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="4" t="s">
+      <c r="C179" s="18"/>
+      <c r="D179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="4"/>
+      <c r="E179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4" t="s">
+      <c r="M179" s="4"/>
+      <c r="N179" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="19"/>
+      <c r="O179" s="18"/>
       <c r="P179" s="6" t="s">
         <v>15</v>
       </c>
@@ -8091,29 +7997,25 @@
       <c r="AH179" s="4"/>
     </row>
     <row r="180" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A180" s="27">
+      <c r="A180" s="26">
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="4" t="s">
+      <c r="C180" s="18"/>
+      <c r="D180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="4"/>
+      <c r="E180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4" t="s">
+      <c r="M180" s="4"/>
+      <c r="N180" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="19"/>
+      <c r="O180" s="18"/>
       <c r="P180" s="6" t="s">
         <v>15</v>
       </c>
@@ -8137,27 +8039,23 @@
       <c r="AH180" s="4"/>
     </row>
     <row r="181" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A181" s="27">
+      <c r="A181" s="26">
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="4" t="s">
+      <c r="C181" s="18"/>
+      <c r="D181" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="L181" s="4" t="s">
+      <c r="N181" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="19"/>
+      <c r="O181" s="18"/>
       <c r="P181" s="6" t="s">
         <v>15</v>
       </c>
@@ -8181,29 +8079,25 @@
       <c r="AH181" s="4"/>
     </row>
     <row r="182" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A182" s="27">
+      <c r="A182" s="26">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="17"/>
+      <c r="C182" s="18"/>
       <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="M182" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L182" s="18"/>
-      <c r="M182" s="18"/>
       <c r="N182" s="18"/>
-      <c r="O182" s="19"/>
+      <c r="O182" s="18"/>
       <c r="P182" s="6" t="s">
         <v>15</v>
       </c>
@@ -8227,27 +8121,23 @@
       <c r="AH182" s="4"/>
     </row>
     <row r="183" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A183" s="27">
+      <c r="A183" s="26">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="17"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I183" s="4"/>
-      <c r="K183" s="4" t="s">
+      <c r="M183" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L183" s="18"/>
-      <c r="M183" s="18"/>
       <c r="N183" s="18"/>
-      <c r="O183" s="19"/>
+      <c r="O183" s="18"/>
       <c r="P183" s="6" t="s">
         <v>15</v>
       </c>
@@ -8271,33 +8161,29 @@
       <c r="AH183" s="4"/>
     </row>
     <row r="184" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A184" s="27">
+      <c r="A184" s="26">
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="17"/>
+      <c r="C184" s="18"/>
       <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H184" t="s">
         <v>25</v>
       </c>
-      <c r="I184" s="26"/>
+      <c r="I184" s="25"/>
       <c r="J184" t="s">
         <v>26</v>
       </c>
-      <c r="K184" s="4" t="s">
+      <c r="M184" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L184" s="18"/>
-      <c r="M184" s="18"/>
       <c r="N184" s="18"/>
-      <c r="O184" s="19"/>
+      <c r="O184" s="18"/>
       <c r="P184" s="6" t="s">
         <v>15</v>
       </c>
@@ -8321,27 +8207,23 @@
       <c r="AH184" s="4"/>
     </row>
     <row r="185" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A185" s="27">
+      <c r="A185" s="26">
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="17"/>
+      <c r="C185" s="18"/>
       <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I185" s="4"/>
-      <c r="K185" s="4" t="s">
+      <c r="M185" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
       <c r="N185" s="18"/>
-      <c r="O185" s="19"/>
+      <c r="O185" s="18"/>
       <c r="P185" s="6" t="s">
         <v>15</v>
       </c>
@@ -8365,7 +8247,7 @@
       <c r="AH185" s="4"/>
     </row>
     <row r="186" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A186" s="27">
+      <c r="A186" s="26">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -8407,31 +8289,25 @@
       <c r="AH186" s="4"/>
     </row>
     <row r="187" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A187" s="27">
+      <c r="A187" s="26">
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C187" s="17"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="4" t="s">
+      <c r="C187" s="18"/>
+      <c r="D187" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="4" t="s">
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="N187" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I187" s="18"/>
-      <c r="J187" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K187" s="4"/>
-      <c r="M187" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N187" s="18"/>
-      <c r="O187" s="19"/>
+      <c r="O187" s="18"/>
       <c r="P187" s="6" t="s">
         <v>15</v>
       </c>
@@ -8455,31 +8331,25 @@
       <c r="AH187" s="4"/>
     </row>
     <row r="188" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A188" s="27">
+      <c r="A188" s="26">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="17"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="4" t="s">
+      <c r="C188" s="18"/>
+      <c r="D188" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="4"/>
-      <c r="H188" s="4" t="s">
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="N188" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I188" s="18"/>
-      <c r="J188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K188" s="4"/>
-      <c r="M188" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N188" s="18"/>
-      <c r="O188" s="19"/>
+      <c r="O188" s="18"/>
       <c r="P188" s="6" t="s">
         <v>15</v>
       </c>
@@ -8503,31 +8373,25 @@
       <c r="AH188" s="4"/>
     </row>
     <row r="189" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A189" s="27">
+      <c r="A189" s="26">
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C189" s="17"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="4" t="s">
+      <c r="C189" s="18"/>
+      <c r="D189" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="4" t="s">
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="N189" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I189" s="18"/>
-      <c r="J189" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K189" s="4"/>
-      <c r="M189" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N189" s="18"/>
-      <c r="O189" s="19"/>
+      <c r="O189" s="18"/>
       <c r="P189" s="6" t="s">
         <v>15</v>
       </c>
@@ -8551,31 +8415,25 @@
       <c r="AH189" s="4"/>
     </row>
     <row r="190" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A190" s="27">
+      <c r="A190" s="26">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C190" s="17"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="4" t="s">
+      <c r="C190" s="18"/>
+      <c r="D190" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="4" t="s">
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="N190" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I190" s="18"/>
-      <c r="J190" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K190" s="4"/>
-      <c r="M190" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N190" s="18"/>
-      <c r="O190" s="19"/>
+      <c r="O190" s="18"/>
       <c r="P190" s="6" t="s">
         <v>15</v>
       </c>
@@ -8599,31 +8457,25 @@
       <c r="AH190" s="4"/>
     </row>
     <row r="191" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A191" s="27">
+      <c r="A191" s="26">
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="17"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="4" t="s">
+      <c r="C191" s="18"/>
+      <c r="D191" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G191" s="4"/>
-      <c r="H191" s="4" t="s">
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="N191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I191" s="18"/>
-      <c r="J191" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K191" s="4"/>
-      <c r="M191" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N191" s="18"/>
-      <c r="O191" s="19"/>
+      <c r="O191" s="18"/>
       <c r="P191" s="6" t="s">
         <v>15</v>
       </c>
@@ -8647,31 +8499,27 @@
       <c r="AH191" s="4"/>
     </row>
     <row r="192" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A192" s="27">
+      <c r="A192" s="26">
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C192" s="17"/>
-      <c r="D192" s="4" t="s">
+      <c r="C192" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="4" t="s">
+      <c r="H192" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H192" s="18"/>
       <c r="I192" s="18"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="4" t="s">
+      <c r="J192" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="N192" s="4" t="s">
+      <c r="O192" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O192" s="19"/>
       <c r="P192" s="6" t="s">
         <v>15</v>
       </c>
@@ -8695,31 +8543,27 @@
       <c r="AH192" s="4"/>
     </row>
     <row r="193" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A193" s="27">
+      <c r="A193" s="26">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F193" s="4"/>
-      <c r="G193" s="4" t="s">
+      <c r="H193" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H193" s="18"/>
       <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="N193" s="4" t="s">
+      <c r="O193" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O193" s="19"/>
       <c r="P193" s="6" t="s">
         <v>15</v>
       </c>
@@ -8743,31 +8587,27 @@
       <c r="AH193" s="4"/>
     </row>
     <row r="194" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A194" s="27">
+      <c r="A194" s="26">
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="17"/>
-      <c r="D194" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F194" s="4"/>
-      <c r="G194" s="4" t="s">
+      <c r="H194" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H194" s="18"/>
       <c r="I194" s="18"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="N194" s="4" t="s">
+      <c r="O194" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O194" s="19"/>
       <c r="P194" s="6" t="s">
         <v>15</v>
       </c>
@@ -8791,31 +8631,27 @@
       <c r="AH194" s="4"/>
     </row>
     <row r="195" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="17"/>
-      <c r="D195" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F195" s="4"/>
-      <c r="G195" s="4" t="s">
+      <c r="H195" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H195" s="18"/>
       <c r="I195" s="18"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="N195" s="4" t="s">
+      <c r="O195" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O195" s="19"/>
       <c r="P195" s="6" t="s">
         <v>15</v>
       </c>
@@ -8839,31 +8675,25 @@
       <c r="AH195" s="4"/>
     </row>
     <row r="196" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A196" s="27">
+      <c r="A196" s="26">
         <v>195</v>
       </c>
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C196" s="3"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="G196" s="4" t="s">
+      <c r="H196" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H196" s="18"/>
       <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="4" t="s">
+      <c r="J196" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M196" s="4"/>
-      <c r="O196" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P196" s="25" t="s">
+      <c r="O196" s="4"/>
+      <c r="P196" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q196" s="4"/>
@@ -8886,31 +8716,25 @@
       <c r="AH196" s="4"/>
     </row>
     <row r="197" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A197" s="27">
+      <c r="A197" s="26">
         <v>196</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C197" s="3"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="G197" s="4" t="s">
+      <c r="H197" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H197" s="18"/>
       <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M197" s="4"/>
-      <c r="O197" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P197" s="25" t="s">
+      <c r="O197" s="4"/>
+      <c r="P197" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q197" s="4"/>
@@ -8933,31 +8757,25 @@
       <c r="AH197" s="4"/>
     </row>
     <row r="198" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A198" s="27">
+      <c r="A198" s="26">
         <v>197</v>
       </c>
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C198" s="3"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="G198" s="4" t="s">
+      <c r="H198" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H198" s="18"/>
       <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="4" t="s">
+      <c r="J198" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M198" s="4"/>
-      <c r="O198" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P198" s="25" t="s">
+      <c r="O198" s="4"/>
+      <c r="P198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q198" s="4"/>
@@ -8980,31 +8798,25 @@
       <c r="AH198" s="4"/>
     </row>
     <row r="199" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A199" s="27">
+      <c r="A199" s="26">
         <v>198</v>
       </c>
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C199" s="3"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="G199" s="4" t="s">
+      <c r="H199" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H199" s="18"/>
       <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="4" t="s">
+      <c r="J199" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M199" s="4"/>
-      <c r="O199" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P199" s="25" t="s">
+      <c r="O199" s="4"/>
+      <c r="P199" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q199" s="4"/>
@@ -9027,21 +8839,19 @@
       <c r="AH199" s="4"/>
     </row>
     <row r="200" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A200" s="27">
+      <c r="A200" s="26">
         <v>199</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
-      <c r="F200" s="4" t="s">
+      <c r="G200" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G200" s="18"/>
       <c r="H200" s="18"/>
       <c r="I200" s="18"/>
       <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="4" t="s">
+      <c r="K200" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N200" s="4"/>
@@ -9067,21 +8877,19 @@
       <c r="AH200" s="4"/>
     </row>
     <row r="201" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A201" s="27">
+      <c r="A201" s="26">
         <v>200</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="3"/>
       <c r="D201" s="4"/>
-      <c r="F201" s="4" t="s">
+      <c r="G201" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G201" s="18"/>
       <c r="H201" s="18"/>
       <c r="I201" s="18"/>
       <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="4" t="s">
+      <c r="K201" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N201" s="4"/>
@@ -9107,21 +8915,19 @@
       <c r="AH201" s="4"/>
     </row>
     <row r="202" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A202" s="27">
+      <c r="A202" s="26">
         <v>201</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="3"/>
       <c r="D202" s="4"/>
-      <c r="F202" s="4" t="s">
+      <c r="G202" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G202" s="18"/>
       <c r="H202" s="18"/>
       <c r="I202" s="18"/>
       <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="4" t="s">
+      <c r="K202" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N202" s="4"/>
@@ -9147,21 +8953,19 @@
       <c r="AH202" s="4"/>
     </row>
     <row r="203" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A203" s="27">
+      <c r="A203" s="26">
         <v>202</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="3"/>
       <c r="D203" s="4"/>
-      <c r="F203" s="4" t="s">
+      <c r="G203" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G203" s="18"/>
       <c r="H203" s="18"/>
       <c r="I203" s="18"/>
       <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="4" t="s">
+      <c r="K203" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N203" s="4"/>
@@ -9187,36 +8991,34 @@
       <c r="AH203" s="4"/>
     </row>
     <row r="204" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A204" s="27">
+      <c r="A204" s="26">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="6"/>
+      <c r="C204" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" s="25"/>
+      <c r="E204" t="s">
         <v>35</v>
       </c>
-      <c r="C204" s="34"/>
-      <c r="D204" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E204" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
       <c r="H204" s="18"/>
       <c r="I204" s="18"/>
       <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="4" t="s">
+      <c r="K204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N204" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O204" s="33"/>
-      <c r="P204" s="6" t="s">
+      <c r="M204" t="s">
         <v>34</v>
       </c>
+      <c r="N204" s="25"/>
+      <c r="O204" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P204" s="6"/>
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
       <c r="S204" s="4"/>
@@ -9237,23 +9039,19 @@
       <c r="AH204" s="4"/>
     </row>
     <row r="205" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A205" s="27">
+      <c r="A205" s="26">
         <v>204</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="4" t="s">
+      <c r="G205" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
       <c r="H205" s="18"/>
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="4" t="s">
+      <c r="K205" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N205" s="4"/>
@@ -9279,7 +9077,7 @@
       <c r="AH205" s="4"/>
     </row>
     <row r="206" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A206" s="27">
+      <c r="A206" s="26">
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -9288,13 +9086,13 @@
       <c r="C206" s="17"/>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
-      <c r="F206" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I206" s="4"/>
-      <c r="L206" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F206" s="18"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="18"/>
       <c r="M206" s="18"/>
       <c r="N206" s="18"/>
       <c r="O206" s="19"/>
@@ -9321,25 +9119,19 @@
       <c r="AH206" s="4"/>
     </row>
     <row r="207" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A207" s="27">
+      <c r="A207" s="26">
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="17"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I207" s="4"/>
-      <c r="L207" s="4" t="s">
+      <c r="O207" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M207" s="18"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="19"/>
       <c r="P207" s="6" t="s">
         <v>15</v>
       </c>
@@ -9363,25 +9155,19 @@
       <c r="AH207" s="4"/>
     </row>
     <row r="208" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A208" s="27">
+      <c r="A208" s="26">
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="17"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="4" t="s">
+      <c r="C208" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I208" s="4"/>
-      <c r="L208" s="4" t="s">
+      <c r="O208" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M208" s="18"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="19"/>
       <c r="P208" s="6" t="s">
         <v>15</v>
       </c>
@@ -9405,25 +9191,19 @@
       <c r="AH208" s="4"/>
     </row>
     <row r="209" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A209" s="27">
+      <c r="A209" s="26">
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C209" s="17"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I209" s="4"/>
-      <c r="L209" s="4" t="s">
+      <c r="O209" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M209" s="18"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="19"/>
       <c r="P209" s="6" t="s">
         <v>15</v>
       </c>
@@ -9447,25 +9227,19 @@
       <c r="AH209" s="4"/>
     </row>
     <row r="210" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A210" s="27">
+      <c r="A210" s="26">
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="4" t="s">
+      <c r="C210" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I210" s="4"/>
-      <c r="L210" s="4" t="s">
+      <c r="O210" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M210" s="18"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="19"/>
       <c r="P210" s="6" t="s">
         <v>15</v>
       </c>
@@ -9489,27 +9263,21 @@
       <c r="AH210" s="4"/>
     </row>
     <row r="211" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A211" s="27">
+      <c r="A211" s="26">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="4" t="s">
+      <c r="C211" s="18"/>
+      <c r="D211" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="K211" s="4" t="s">
+      <c r="N211" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L211" s="18"/>
-      <c r="M211" s="18"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="19"/>
+      <c r="O211" s="18"/>
       <c r="P211" s="6" t="s">
         <v>15</v>
       </c>
@@ -9533,27 +9301,21 @@
       <c r="AH211" s="4"/>
     </row>
     <row r="212" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A212" s="27">
+      <c r="A212" s="26">
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="17"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="4" t="s">
+      <c r="C212" s="18"/>
+      <c r="D212" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="K212" s="4" t="s">
+      <c r="N212" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L212" s="18"/>
-      <c r="M212" s="18"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="19"/>
+      <c r="O212" s="18"/>
       <c r="P212" s="6" t="s">
         <v>15</v>
       </c>
@@ -9577,27 +9339,21 @@
       <c r="AH212" s="4"/>
     </row>
     <row r="213" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A213" s="27">
+      <c r="A213" s="26">
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="17"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="4" t="s">
+      <c r="C213" s="18"/>
+      <c r="D213" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I213" s="4"/>
-      <c r="K213" s="4" t="s">
+      <c r="N213" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L213" s="18"/>
-      <c r="M213" s="18"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="19"/>
+      <c r="O213" s="18"/>
       <c r="P213" s="6" t="s">
         <v>15</v>
       </c>
@@ -9621,7 +9377,7 @@
       <c r="AH213" s="4"/>
     </row>
     <row r="214" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A214" s="27">
+      <c r="A214" s="26">
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
@@ -9661,7 +9417,7 @@
       <c r="AH214" s="4"/>
     </row>
     <row r="215" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A215" s="27">
+      <c r="A215" s="26">
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -9701,7 +9457,7 @@
       <c r="AH215" s="4"/>
     </row>
     <row r="216" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A216" s="27">
+      <c r="A216" s="26">
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -9741,7 +9497,7 @@
       <c r="AH216" s="4"/>
     </row>
     <row r="217" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A217" s="27">
+      <c r="A217" s="26">
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
@@ -9781,7 +9537,7 @@
       <c r="AH217" s="4"/>
     </row>
     <row r="218" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A218" s="27">
+      <c r="A218" s="26">
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
@@ -9821,7 +9577,7 @@
       <c r="AH218" s="4"/>
     </row>
     <row r="219" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A219" s="27">
+      <c r="A219" s="26">
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -9861,7 +9617,7 @@
       <c r="AH219" s="4"/>
     </row>
     <row r="220" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A220" s="27">
+      <c r="A220" s="26">
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
@@ -9901,7 +9657,7 @@
       <c r="AH220" s="4"/>
     </row>
     <row r="221" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A221" s="27">
+      <c r="A221" s="26">
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -9941,7 +9697,7 @@
       <c r="AH221" s="4"/>
     </row>
     <row r="222" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A222" s="27">
+      <c r="A222" s="26">
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -9981,7 +9737,7 @@
       <c r="AH222" s="4"/>
     </row>
     <row r="223" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A223" s="27">
+      <c r="A223" s="26">
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -10021,7 +9777,7 @@
       <c r="AH223" s="4"/>
     </row>
     <row r="224" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A224" s="27">
+      <c r="A224" s="26">
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -10061,7 +9817,7 @@
       <c r="AH224" s="4"/>
     </row>
     <row r="225" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A225" s="27">
+      <c r="A225" s="26">
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -10101,7 +9857,7 @@
       <c r="AH225" s="4"/>
     </row>
     <row r="226" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A226" s="27">
+      <c r="A226" s="26">
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -10141,7 +9897,7 @@
       <c r="AH226" s="4"/>
     </row>
     <row r="227" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A227" s="27">
+      <c r="A227" s="26">
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -10181,7 +9937,7 @@
       <c r="AH227" s="4"/>
     </row>
     <row r="228" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A228" s="27">
+      <c r="A228" s="26">
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -10221,7 +9977,7 @@
       <c r="AH228" s="4"/>
     </row>
     <row r="229" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A229" s="27">
+      <c r="A229" s="26">
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -10261,7 +10017,7 @@
       <c r="AH229" s="4"/>
     </row>
     <row r="230" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A230" s="27">
+      <c r="A230" s="26">
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -10301,7 +10057,7 @@
       <c r="AH230" s="4"/>
     </row>
     <row r="231" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A231" s="27">
+      <c r="A231" s="26">
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -10341,7 +10097,7 @@
       <c r="AH231" s="4"/>
     </row>
     <row r="232" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A232" s="27">
+      <c r="A232" s="26">
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -10381,7 +10137,7 @@
       <c r="AH232" s="4"/>
     </row>
     <row r="233" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A233" s="27">
+      <c r="A233" s="26">
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -10421,7 +10177,7 @@
       <c r="AH233" s="4"/>
     </row>
     <row r="234" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A234" s="27">
+      <c r="A234" s="26">
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -10461,7 +10217,7 @@
       <c r="AH234" s="4"/>
     </row>
     <row r="235" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A235" s="27">
+      <c r="A235" s="26">
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -10501,7 +10257,7 @@
       <c r="AH235" s="4"/>
     </row>
     <row r="236" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A236" s="27">
+      <c r="A236" s="26">
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
@@ -10541,7 +10297,7 @@
       <c r="AH236" s="4"/>
     </row>
     <row r="237" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A237" s="27">
+      <c r="A237" s="26">
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -10581,7 +10337,7 @@
       <c r="AH237" s="4"/>
     </row>
     <row r="238" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A238" s="27">
+      <c r="A238" s="26">
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
@@ -10621,7 +10377,7 @@
       <c r="AH238" s="4"/>
     </row>
     <row r="239" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A239" s="27">
+      <c r="A239" s="26">
         <v>238</v>
       </c>
       <c r="B239" s="6" t="s">
@@ -10661,7 +10417,7 @@
       <c r="AH239" s="4"/>
     </row>
     <row r="240" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A240" s="27">
+      <c r="A240" s="26">
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -10701,7 +10457,7 @@
       <c r="AH240" s="4"/>
     </row>
     <row r="241" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A241" s="27">
+      <c r="A241" s="26">
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -10741,7 +10497,7 @@
       <c r="AH241" s="4"/>
     </row>
     <row r="242" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A242" s="27">
+      <c r="A242" s="26">
         <v>241</v>
       </c>
       <c r="B242" s="6" t="s">
@@ -10781,7 +10537,7 @@
       <c r="AH242" s="4"/>
     </row>
     <row r="243" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A243" s="27">
+      <c r="A243" s="26">
         <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -10821,7 +10577,7 @@
       <c r="AH243" s="4"/>
     </row>
     <row r="244" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A244" s="27">
+      <c r="A244" s="26">
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -10861,7 +10617,7 @@
       <c r="AH244" s="4"/>
     </row>
     <row r="245" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A245" s="27">
+      <c r="A245" s="26">
         <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -10901,7 +10657,7 @@
       <c r="AH245" s="4"/>
     </row>
     <row r="246" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A246" s="27">
+      <c r="A246" s="26">
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -10941,7 +10697,7 @@
       <c r="AH246" s="4"/>
     </row>
     <row r="247" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A247" s="27">
+      <c r="A247" s="26">
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -10981,7 +10737,7 @@
       <c r="AH247" s="4"/>
     </row>
     <row r="248" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A248" s="27">
+      <c r="A248" s="26">
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
@@ -11021,7 +10777,7 @@
       <c r="AH248" s="4"/>
     </row>
     <row r="249" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A249" s="27">
+      <c r="A249" s="26">
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -11061,7 +10817,7 @@
       <c r="AH249" s="4"/>
     </row>
     <row r="250" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A250" s="27">
+      <c r="A250" s="26">
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
@@ -11101,7 +10857,7 @@
       <c r="AH250" s="4"/>
     </row>
     <row r="251" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A251" s="27">
+      <c r="A251" s="26">
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -11141,7 +10897,7 @@
       <c r="AH251" s="4"/>
     </row>
     <row r="252" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A252" s="27">
+      <c r="A252" s="26">
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -11181,7 +10937,7 @@
       <c r="AH252" s="4"/>
     </row>
     <row r="253" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A253" s="27">
+      <c r="A253" s="26">
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -11221,7 +10977,7 @@
       <c r="AH253" s="4"/>
     </row>
     <row r="254" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A254" s="27">
+      <c r="A254" s="26">
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -11261,7 +11017,7 @@
       <c r="AH254" s="4"/>
     </row>
     <row r="255" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A255" s="27">
+      <c r="A255" s="26">
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
@@ -11301,7 +11057,7 @@
       <c r="AH255" s="4"/>
     </row>
     <row r="256" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A256" s="27">
+      <c r="A256" s="26">
         <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
@@ -11341,7 +11097,7 @@
       <c r="AH256" s="4"/>
     </row>
     <row r="257" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A257" s="27">
+      <c r="A257" s="26">
         <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -11381,7 +11137,7 @@
       <c r="AH257" s="4"/>
     </row>
     <row r="258" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A258" s="27">
+      <c r="A258" s="26">
         <v>257</v>
       </c>
       <c r="B258" s="6" t="s">
@@ -11421,7 +11177,7 @@
       <c r="AH258" s="4"/>
     </row>
     <row r="259" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A259" s="27">
+      <c r="A259" s="26">
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -11461,7 +11217,7 @@
       <c r="AH259" s="4"/>
     </row>
     <row r="260" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A260" s="27">
+      <c r="A260" s="26">
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -11501,7 +11257,7 @@
       <c r="AH260" s="4"/>
     </row>
     <row r="261" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A261" s="27">
+      <c r="A261" s="26">
         <v>260</v>
       </c>
       <c r="B261" s="6" t="s">
@@ -11541,7 +11297,7 @@
       <c r="AH261" s="4"/>
     </row>
     <row r="262" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A262" s="27">
+      <c r="A262" s="26">
         <v>261</v>
       </c>
       <c r="B262" s="6" t="s">
@@ -11581,7 +11337,7 @@
       <c r="AH262" s="4"/>
     </row>
     <row r="263" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A263" s="27">
+      <c r="A263" s="26">
         <v>262</v>
       </c>
       <c r="B263" s="6" t="s">
@@ -11621,7 +11377,7 @@
       <c r="AH263" s="4"/>
     </row>
     <row r="264" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A264" s="27">
+      <c r="A264" s="26">
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -11661,7 +11417,7 @@
       <c r="AH264" s="4"/>
     </row>
     <row r="265" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A265" s="27">
+      <c r="A265" s="26">
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
@@ -11701,7 +11457,7 @@
       <c r="AH265" s="4"/>
     </row>
     <row r="266" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A266" s="27">
+      <c r="A266" s="26">
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -11741,7 +11497,7 @@
       <c r="AH266" s="4"/>
     </row>
     <row r="267" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A267" s="27">
+      <c r="A267" s="26">
         <v>266</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -11781,7 +11537,7 @@
       <c r="AH267" s="4"/>
     </row>
     <row r="268" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A268" s="27">
+      <c r="A268" s="26">
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
@@ -11821,7 +11577,7 @@
       <c r="AH268" s="4"/>
     </row>
     <row r="269" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A269" s="27">
+      <c r="A269" s="26">
         <v>268</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -11861,7 +11617,7 @@
       <c r="AH269" s="4"/>
     </row>
     <row r="270" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A270" s="27">
+      <c r="A270" s="26">
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -11901,7 +11657,7 @@
       <c r="AH270" s="4"/>
     </row>
     <row r="271" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A271" s="27">
+      <c r="A271" s="26">
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
@@ -11941,7 +11697,7 @@
       <c r="AH271" s="4"/>
     </row>
     <row r="272" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A272" s="27">
+      <c r="A272" s="26">
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
@@ -11981,7 +11737,7 @@
       <c r="AH272" s="4"/>
     </row>
     <row r="273" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A273" s="27">
+      <c r="A273" s="26">
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
@@ -12021,7 +11777,7 @@
       <c r="AH273" s="4"/>
     </row>
     <row r="274" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A274" s="27">
+      <c r="A274" s="26">
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
@@ -12061,7 +11817,7 @@
       <c r="AH274" s="4"/>
     </row>
     <row r="275" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A275" s="27">
+      <c r="A275" s="26">
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -12101,7 +11857,7 @@
       <c r="AH275" s="4"/>
     </row>
     <row r="276" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A276" s="27">
+      <c r="A276" s="26">
         <v>275</v>
       </c>
       <c r="B276" s="6" t="s">
@@ -12141,7 +11897,7 @@
       <c r="AH276" s="4"/>
     </row>
     <row r="277" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A277" s="27">
+      <c r="A277" s="26">
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
@@ -12181,7 +11937,7 @@
       <c r="AH277" s="4"/>
     </row>
     <row r="278" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A278" s="27">
+      <c r="A278" s="26">
         <v>277</v>
       </c>
       <c r="B278" s="6" t="s">
@@ -12221,7 +11977,7 @@
       <c r="AH278" s="4"/>
     </row>
     <row r="279" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A279" s="27">
+      <c r="A279" s="26">
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
@@ -12261,7 +12017,7 @@
       <c r="AH279" s="4"/>
     </row>
     <row r="280" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A280" s="27">
+      <c r="A280" s="26">
         <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -12301,7 +12057,7 @@
       <c r="AH280" s="4"/>
     </row>
     <row r="281" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A281" s="27">
+      <c r="A281" s="26">
         <v>280</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -12341,7 +12097,7 @@
       <c r="AH281" s="4"/>
     </row>
     <row r="282" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A282" s="27">
+      <c r="A282" s="26">
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
@@ -12381,7 +12137,7 @@
       <c r="AH282" s="4"/>
     </row>
     <row r="283" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A283" s="27">
+      <c r="A283" s="26">
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
@@ -12421,7 +12177,7 @@
       <c r="AH283" s="4"/>
     </row>
     <row r="284" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A284" s="27">
+      <c r="A284" s="26">
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
@@ -12461,7 +12217,7 @@
       <c r="AH284" s="4"/>
     </row>
     <row r="285" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A285" s="27">
+      <c r="A285" s="26">
         <v>284</v>
       </c>
       <c r="B285" s="6" t="s">
@@ -12501,7 +12257,7 @@
       <c r="AH285" s="4"/>
     </row>
     <row r="286" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A286" s="27">
+      <c r="A286" s="26">
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -12541,7 +12297,7 @@
       <c r="AH286" s="4"/>
     </row>
     <row r="287" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A287" s="27">
+      <c r="A287" s="26">
         <v>286</v>
       </c>
       <c r="B287" s="6" t="s">
@@ -12581,7 +12337,7 @@
       <c r="AH287" s="4"/>
     </row>
     <row r="288" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A288" s="27">
+      <c r="A288" s="26">
         <v>287</v>
       </c>
       <c r="B288" s="6" t="s">
@@ -12621,7 +12377,7 @@
       <c r="AH288" s="4"/>
     </row>
     <row r="289" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A289" s="27">
+      <c r="A289" s="26">
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
@@ -12661,7 +12417,7 @@
       <c r="AH289" s="4"/>
     </row>
     <row r="290" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A290" s="27">
+      <c r="A290" s="26">
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -12701,7 +12457,7 @@
       <c r="AH290" s="4"/>
     </row>
     <row r="291" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A291" s="27">
+      <c r="A291" s="26">
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -12741,7 +12497,7 @@
       <c r="AH291" s="4"/>
     </row>
     <row r="292" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A292" s="27">
+      <c r="A292" s="26">
         <v>291</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -12781,7 +12537,7 @@
       <c r="AH292" s="4"/>
     </row>
     <row r="293" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A293" s="27">
+      <c r="A293" s="26">
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -12821,7 +12577,7 @@
       <c r="AH293" s="4"/>
     </row>
     <row r="294" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A294" s="27">
+      <c r="A294" s="26">
         <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
@@ -12861,7 +12617,7 @@
       <c r="AH294" s="4"/>
     </row>
     <row r="295" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A295" s="27">
+      <c r="A295" s="26">
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
@@ -12901,7 +12657,7 @@
       <c r="AH295" s="4"/>
     </row>
     <row r="296" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A296" s="27">
+      <c r="A296" s="26">
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -12941,7 +12697,7 @@
       <c r="AH296" s="4"/>
     </row>
     <row r="297" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A297" s="27">
+      <c r="A297" s="26">
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -12981,7 +12737,7 @@
       <c r="AH297" s="4"/>
     </row>
     <row r="298" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A298" s="27">
+      <c r="A298" s="26">
         <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
@@ -13021,7 +12777,7 @@
       <c r="AH298" s="4"/>
     </row>
     <row r="299" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A299" s="27">
+      <c r="A299" s="26">
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
@@ -13061,7 +12817,7 @@
       <c r="AH299" s="4"/>
     </row>
     <row r="300" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A300" s="27">
+      <c r="A300" s="26">
         <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
@@ -13101,7 +12857,7 @@
       <c r="AH300" s="4"/>
     </row>
     <row r="301" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A301" s="27">
+      <c r="A301" s="26">
         <v>300</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -13141,7 +12897,7 @@
       <c r="AH301" s="4"/>
     </row>
     <row r="302" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A302" s="27">
+      <c r="A302" s="26">
         <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -13181,7 +12937,7 @@
       <c r="AH302" s="4"/>
     </row>
     <row r="303" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A303" s="27">
+      <c r="A303" s="26">
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -13221,7 +12977,7 @@
       <c r="AH303" s="4"/>
     </row>
     <row r="304" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A304" s="27">
+      <c r="A304" s="26">
         <v>303</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -13261,7 +13017,7 @@
       <c r="AH304" s="4"/>
     </row>
     <row r="305" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A305" s="27">
+      <c r="A305" s="26">
         <v>304</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -13301,7 +13057,7 @@
       <c r="AH305" s="4"/>
     </row>
     <row r="306" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A306" s="27">
+      <c r="A306" s="26">
         <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -13341,7 +13097,7 @@
       <c r="AH306" s="4"/>
     </row>
     <row r="307" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A307" s="27">
+      <c r="A307" s="26">
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
@@ -13381,7 +13137,7 @@
       <c r="AH307" s="4"/>
     </row>
     <row r="308" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A308" s="27">
+      <c r="A308" s="26">
         <v>307</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -13421,7 +13177,7 @@
       <c r="AH308" s="4"/>
     </row>
     <row r="309" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A309" s="27">
+      <c r="A309" s="26">
         <v>308</v>
       </c>
       <c r="B309" s="6" t="s">
@@ -13461,7 +13217,7 @@
       <c r="AH309" s="4"/>
     </row>
     <row r="310" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A310" s="27">
+      <c r="A310" s="26">
         <v>309</v>
       </c>
       <c r="B310" s="6" t="s">
@@ -13501,7 +13257,7 @@
       <c r="AH310" s="4"/>
     </row>
     <row r="311" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A311" s="27">
+      <c r="A311" s="26">
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -13541,7 +13297,7 @@
       <c r="AH311" s="4"/>
     </row>
     <row r="312" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A312" s="27">
+      <c r="A312" s="26">
         <v>311</v>
       </c>
       <c r="B312" s="6" t="s">
@@ -13581,7 +13337,7 @@
       <c r="AH312" s="4"/>
     </row>
     <row r="313" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A313" s="27">
+      <c r="A313" s="26">
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -13621,7 +13377,7 @@
       <c r="AH313" s="4"/>
     </row>
     <row r="314" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A314" s="27">
+      <c r="A314" s="26">
         <v>313</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -13661,7 +13417,7 @@
       <c r="AH314" s="4"/>
     </row>
     <row r="315" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A315" s="27">
+      <c r="A315" s="26">
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -13701,7 +13457,7 @@
       <c r="AH315" s="4"/>
     </row>
     <row r="316" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A316" s="27">
+      <c r="A316" s="26">
         <v>315</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -13741,7 +13497,7 @@
       <c r="AH316" s="4"/>
     </row>
     <row r="317" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A317" s="27">
+      <c r="A317" s="26">
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -13781,7 +13537,7 @@
       <c r="AH317" s="4"/>
     </row>
     <row r="318" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A318" s="27">
+      <c r="A318" s="26">
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
@@ -13821,7 +13577,7 @@
       <c r="AH318" s="4"/>
     </row>
     <row r="319" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A319" s="27">
+      <c r="A319" s="26">
         <v>318</v>
       </c>
       <c r="B319" s="6"/>
@@ -13859,7 +13615,7 @@
       <c r="AH319" s="4"/>
     </row>
     <row r="320" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A320" s="27">
+      <c r="A320" s="26">
         <v>319</v>
       </c>
       <c r="B320" s="6"/>
@@ -13897,7 +13653,7 @@
       <c r="AH320" s="4"/>
     </row>
     <row r="321" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A321" s="27">
+      <c r="A321" s="26">
         <v>320</v>
       </c>
       <c r="B321" s="6"/>
@@ -13935,7 +13691,7 @@
       <c r="AH321" s="4"/>
     </row>
     <row r="322" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A322" s="27">
+      <c r="A322" s="26">
         <v>321</v>
       </c>
       <c r="B322" s="6"/>
@@ -13946,7 +13702,7 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
@@ -13975,7 +13731,7 @@
       <c r="AH322" s="4"/>
     </row>
     <row r="323" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A323" s="27">
+      <c r="A323" s="26">
         <v>322</v>
       </c>
       <c r="B323" s="6"/>
@@ -14013,7 +13769,7 @@
       <c r="AH323" s="4"/>
     </row>
     <row r="324" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A324" s="27">
+      <c r="A324" s="26">
         <v>323</v>
       </c>
       <c r="B324" s="6"/>
@@ -14051,7 +13807,7 @@
       <c r="AH324" s="4"/>
     </row>
     <row r="325" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A325" s="27">
+      <c r="A325" s="26">
         <v>324</v>
       </c>
       <c r="B325" s="6"/>
@@ -14063,7 +13819,7 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
@@ -14091,7 +13847,7 @@
       <c r="AH325" s="4"/>
     </row>
     <row r="326" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A326" s="27">
+      <c r="A326" s="26">
         <v>325</v>
       </c>
       <c r="B326" s="6"/>
@@ -14126,7 +13882,7 @@
       <c r="AH326" s="4"/>
     </row>
     <row r="327" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A327" s="27">
+      <c r="A327" s="26">
         <v>326</v>
       </c>
       <c r="B327" s="6"/>
@@ -14140,7 +13896,7 @@
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
       <c r="L327" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
@@ -14166,7 +13922,7 @@
       <c r="AH327" s="4"/>
     </row>
     <row r="328" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A328" s="27">
+      <c r="A328" s="26">
         <v>327</v>
       </c>
       <c r="B328" s="6"/>
@@ -14181,7 +13937,7 @@
       <c r="K328" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L328" s="26"/>
+      <c r="L328" s="25"/>
       <c r="M328" s="4" t="s">
         <v>26</v>
       </c>
@@ -14208,7 +13964,7 @@
       <c r="AH328" s="4"/>
     </row>
     <row r="329" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A329" s="27">
+      <c r="A329" s="26">
         <v>328</v>
       </c>
       <c r="B329" s="6" t="s">
@@ -14248,7 +14004,7 @@
       <c r="AH329" s="4"/>
     </row>
     <row r="330" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A330" s="27">
+      <c r="A330" s="26">
         <v>329</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -14288,7 +14044,7 @@
       <c r="AH330" s="4"/>
     </row>
     <row r="331" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A331" s="27">
+      <c r="A331" s="26">
         <v>330</v>
       </c>
       <c r="B331" s="6"/>
@@ -14326,7 +14082,7 @@
       <c r="AH331" s="4"/>
     </row>
     <row r="332" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A332" s="27">
+      <c r="A332" s="26">
         <v>331</v>
       </c>
       <c r="B332" s="6"/>
@@ -14361,7 +14117,7 @@
       <c r="AH332" s="4"/>
     </row>
     <row r="333" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A333" s="27">
+      <c r="A333" s="26">
         <v>332</v>
       </c>
       <c r="B333" s="6"/>
@@ -14375,11 +14131,10 @@
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="4"/>
-      <c r="N333" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O333" s="4"/>
+      <c r="M333" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N333" s="4"/>
       <c r="P333" s="6"/>
       <c r="Q333" s="4"/>
       <c r="R333" s="4"/>
@@ -14401,7 +14156,7 @@
       <c r="AH333" s="4"/>
     </row>
     <row r="334" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A334" s="27">
+      <c r="A334" s="26">
         <v>333</v>
       </c>
       <c r="B334" s="6"/>
@@ -14414,12 +14169,11 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
-      <c r="L334" s="4"/>
-      <c r="M334" s="4" t="s">
+      <c r="L334" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N334" s="26"/>
-      <c r="O334" s="4" t="s">
+      <c r="M334" s="25"/>
+      <c r="N334" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P334" s="6"/>
@@ -14443,7 +14197,7 @@
       <c r="AH334" s="4"/>
     </row>
     <row r="335" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A335" s="27">
+      <c r="A335" s="26">
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
@@ -14483,7 +14237,7 @@
       <c r="AH335" s="4"/>
     </row>
     <row r="336" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A336" s="27">
+      <c r="A336" s="26">
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
@@ -14523,7 +14277,7 @@
       <c r="AH336" s="4"/>
     </row>
     <row r="337" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A337" s="27">
+      <c r="A337" s="26">
         <v>336</v>
       </c>
       <c r="B337" s="6"/>
@@ -14561,7 +14315,7 @@
       <c r="AH337" s="4"/>
     </row>
     <row r="338" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A338" s="27">
+      <c r="A338" s="26">
         <v>337</v>
       </c>
       <c r="B338" s="6"/>
@@ -14599,7 +14353,7 @@
       <c r="AH338" s="4"/>
     </row>
     <row r="339" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A339" s="27">
+      <c r="A339" s="26">
         <v>338</v>
       </c>
       <c r="B339" s="6"/>
@@ -14609,11 +14363,10 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
-      <c r="J339" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K339" s="4"/>
+      <c r="J339" s="4"/>
+      <c r="K339" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="L339" s="4"/>
       <c r="M339" s="4"/>
       <c r="N339" s="4"/>
@@ -14639,7 +14392,7 @@
       <c r="AH339" s="4"/>
     </row>
     <row r="340" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A340" s="27">
+      <c r="A340" s="26">
         <v>339</v>
       </c>
       <c r="B340" s="6"/>
@@ -14649,14 +14402,13 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
-      <c r="I340" s="4" t="s">
+      <c r="J340" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J340" s="26"/>
-      <c r="K340" s="4" t="s">
+      <c r="K340" s="25"/>
+      <c r="L340" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L340" s="4"/>
       <c r="M340" s="4"/>
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
@@ -14681,7 +14433,7 @@
       <c r="AH340" s="4"/>
     </row>
     <row r="341" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A341" s="27">
+      <c r="A341" s="26">
         <v>340</v>
       </c>
       <c r="B341" s="6" t="s">
@@ -14721,7 +14473,7 @@
       <c r="AH341" s="4"/>
     </row>
     <row r="342" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A342" s="27">
+      <c r="A342" s="26">
         <v>341</v>
       </c>
       <c r="B342" s="6" t="s">
@@ -14761,7 +14513,7 @@
       <c r="AH342" s="4"/>
     </row>
     <row r="343" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A343" s="27">
+      <c r="A343" s="26">
         <v>342</v>
       </c>
       <c r="B343" s="6"/>
@@ -14799,7 +14551,7 @@
       <c r="AH343" s="4"/>
     </row>
     <row r="344" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A344" s="27">
+      <c r="A344" s="26">
         <v>343</v>
       </c>
       <c r="B344" s="6"/>
@@ -14837,7 +14589,7 @@
       <c r="AH344" s="4"/>
     </row>
     <row r="345" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A345" s="27">
+      <c r="A345" s="26">
         <v>344</v>
       </c>
       <c r="B345" s="6"/>
@@ -14875,7 +14627,7 @@
       <c r="AH345" s="4"/>
     </row>
     <row r="346" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A346" s="27">
+      <c r="A346" s="26">
         <v>345</v>
       </c>
       <c r="B346" s="6"/>
@@ -14913,7 +14665,7 @@
       <c r="AH346" s="4"/>
     </row>
     <row r="347" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A347" s="27">
+      <c r="A347" s="26">
         <v>346</v>
       </c>
       <c r="B347" s="6"/>
@@ -14951,7 +14703,7 @@
       <c r="AH347" s="4"/>
     </row>
     <row r="348" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A348" s="27">
+      <c r="A348" s="26">
         <v>347</v>
       </c>
       <c r="B348" s="6"/>
@@ -14991,7 +14743,7 @@
       <c r="AH348" s="4"/>
     </row>
     <row r="349" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A349" s="27">
+      <c r="A349" s="26">
         <v>348</v>
       </c>
       <c r="B349" s="6"/>
@@ -15029,7 +14781,7 @@
       <c r="AH349" s="4"/>
     </row>
     <row r="350" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A350" s="27">
+      <c r="A350" s="26">
         <v>349</v>
       </c>
       <c r="B350" s="6"/>
@@ -15067,7 +14819,7 @@
       <c r="AH350" s="4"/>
     </row>
     <row r="351" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A351" s="27">
+      <c r="A351" s="26">
         <v>350</v>
       </c>
       <c r="B351" s="6"/>
@@ -15105,7 +14857,7 @@
       <c r="AH351" s="4"/>
     </row>
     <row r="352" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A352" s="27">
+      <c r="A352" s="26">
         <v>351</v>
       </c>
       <c r="B352" s="6"/>
@@ -15145,7 +14897,7 @@
       <c r="AH352" s="4"/>
     </row>
     <row r="353" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A353" s="27">
+      <c r="A353" s="26">
         <v>352</v>
       </c>
       <c r="B353" s="6"/>
@@ -15183,13 +14935,11 @@
       <c r="AH353" s="4"/>
     </row>
     <row r="354" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A354" s="27">
+      <c r="A354" s="26">
         <v>353</v>
       </c>
       <c r="B354" s="6"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
@@ -15221,18 +14971,16 @@
       <c r="AH354" s="4"/>
     </row>
     <row r="355" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A355" s="27">
+      <c r="A355" s="26">
         <v>354</v>
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4"/>
-      <c r="F355" s="4" t="s">
+      <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
@@ -15261,13 +15009,11 @@
       <c r="AH355" s="4"/>
     </row>
     <row r="356" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A356" s="27">
+      <c r="A356" s="26">
         <v>355</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
@@ -15299,16 +15045,14 @@
       <c r="AH356" s="4"/>
     </row>
     <row r="357" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A357" s="27">
+      <c r="A357" s="26">
         <v>356</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="4" t="s">
+      <c r="F357" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E357" s="4"/>
-      <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
@@ -15339,13 +15083,11 @@
       <c r="AH357" s="4"/>
     </row>
     <row r="358" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A358" s="27">
+      <c r="A358" s="26">
         <v>357</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
@@ -15377,20 +15119,17 @@
       <c r="AH358" s="4"/>
     </row>
     <row r="359" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A359" s="27">
+      <c r="A359" s="26">
         <v>358</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="4"/>
-      <c r="E359" s="4"/>
-      <c r="F359" s="4" t="s">
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G359" s="18"/>
-      <c r="H359" s="18"/>
-      <c r="I359" s="18"/>
-      <c r="J359" s="18"/>
       <c r="K359" s="18"/>
       <c r="L359" s="18"/>
       <c r="M359" s="18"/>
@@ -15419,13 +15158,11 @@
       <c r="AH359" s="4"/>
     </row>
     <row r="360" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A360" s="27">
+      <c r="A360" s="26">
         <v>359</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="4"/>
-      <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
@@ -15457,16 +15194,14 @@
       <c r="AH360" s="4"/>
     </row>
     <row r="361" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A361" s="27">
+      <c r="A361" s="26">
         <v>360</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="4" t="s">
+      <c r="F361" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E361" s="4"/>
-      <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
@@ -15497,13 +15232,11 @@
       <c r="AH361" s="4"/>
     </row>
     <row r="362" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A362" s="27">
+      <c r="A362" s="26">
         <v>361</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
@@ -15535,13 +15268,11 @@
       <c r="AH362" s="4"/>
     </row>
     <row r="363" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A363" s="27">
+      <c r="A363" s="26">
         <v>362</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
@@ -15573,18 +15304,16 @@
       <c r="AH363" s="4"/>
     </row>
     <row r="364" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A364" s="27">
+      <c r="A364" s="26">
         <v>363</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="4" t="s">
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+      <c r="H364" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G364" s="4"/>
-      <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
@@ -15613,7 +15342,7 @@
       <c r="AH364" s="4"/>
     </row>
     <row r="365" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A365" s="27">
+      <c r="A365" s="26">
         <v>364</v>
       </c>
       <c r="B365" s="6"/>
@@ -15651,7 +15380,7 @@
       <c r="AH365" s="4"/>
     </row>
     <row r="366" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A366" s="27">
+      <c r="A366" s="26">
         <v>365</v>
       </c>
       <c r="B366" s="6"/>
@@ -15691,7 +15420,7 @@
       <c r="AH366" s="4"/>
     </row>
     <row r="367" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A367" s="27">
+      <c r="A367" s="26">
         <v>366</v>
       </c>
       <c r="B367" s="6"/>
@@ -15729,7 +15458,7 @@
       <c r="AH367" s="4"/>
     </row>
     <row r="368" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A368" s="27">
+      <c r="A368" s="26">
         <v>367</v>
       </c>
       <c r="B368" s="6"/>
@@ -15767,7 +15496,7 @@
       <c r="AH368" s="4"/>
     </row>
     <row r="369" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A369" s="27">
+      <c r="A369" s="26">
         <v>368</v>
       </c>
       <c r="B369" s="6" t="s">
@@ -15778,11 +15507,10 @@
       <c r="E369" s="18"/>
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
-      <c r="H369" s="18"/>
-      <c r="I369" s="18"/>
-      <c r="J369" s="4" t="s">
+      <c r="H369" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I369" s="4"/>
       <c r="K369" s="4"/>
       <c r="L369" s="4"/>
       <c r="M369" s="4"/>
@@ -15809,7 +15537,7 @@
       <c r="AH369" s="4"/>
     </row>
     <row r="370" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A370" s="27">
+      <c r="A370" s="26">
         <v>369</v>
       </c>
       <c r="B370" s="6"/>
@@ -15849,7 +15577,7 @@
       <c r="AH370" s="4"/>
     </row>
     <row r="371" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A371" s="27">
+      <c r="A371" s="26">
         <v>370</v>
       </c>
       <c r="B371" s="6"/>
@@ -15887,7 +15615,7 @@
       <c r="AH371" s="4"/>
     </row>
     <row r="372" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A372" s="27">
+      <c r="A372" s="26">
         <v>371</v>
       </c>
       <c r="B372" s="6"/>
@@ -15925,7 +15653,7 @@
       <c r="AH372" s="4"/>
     </row>
     <row r="373" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A373" s="27">
+      <c r="A373" s="26">
         <v>372</v>
       </c>
       <c r="B373" s="6"/>
@@ -15963,7 +15691,7 @@
       <c r="AH373" s="4"/>
     </row>
     <row r="374" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A374" s="27">
+      <c r="A374" s="26">
         <v>373</v>
       </c>
       <c r="B374" s="6"/>
@@ -16003,7 +15731,7 @@
       <c r="AH374" s="4"/>
     </row>
     <row r="375" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A375" s="27">
+      <c r="A375" s="26">
         <v>374</v>
       </c>
       <c r="B375" s="6"/>
@@ -16041,7 +15769,7 @@
       <c r="AH375" s="4"/>
     </row>
     <row r="376" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A376" s="27">
+      <c r="A376" s="26">
         <v>375</v>
       </c>
       <c r="B376" s="6"/>
@@ -16079,7 +15807,7 @@
       <c r="AH376" s="4"/>
     </row>
     <row r="377" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A377" s="28">
+      <c r="A377" s="27">
         <v>376</v>
       </c>
       <c r="B377" s="6" t="s">
@@ -16119,7 +15847,7 @@
       <c r="AH377" s="4"/>
     </row>
     <row r="378" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A378" s="28">
+      <c r="A378" s="27">
         <v>377</v>
       </c>
       <c r="B378" s="6" t="s">
@@ -16159,7 +15887,7 @@
       <c r="AH378" s="4"/>
     </row>
     <row r="379" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A379" s="28">
+      <c r="A379" s="27">
         <v>378</v>
       </c>
       <c r="B379" s="6" t="s">
@@ -16199,7 +15927,7 @@
       <c r="AH379" s="4"/>
     </row>
     <row r="380" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A380" s="28">
+      <c r="A380" s="27">
         <v>379</v>
       </c>
       <c r="B380" s="6" t="s">
@@ -16239,7 +15967,7 @@
       <c r="AH380" s="4"/>
     </row>
     <row r="381" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A381" s="28">
+      <c r="A381" s="27">
         <v>380</v>
       </c>
       <c r="B381" s="6" t="s">
@@ -16279,7 +16007,7 @@
       <c r="AH381" s="4"/>
     </row>
     <row r="382" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A382" s="28">
+      <c r="A382" s="27">
         <v>381</v>
       </c>
       <c r="B382" s="6" t="s">
@@ -16319,7 +16047,7 @@
       <c r="AH382" s="4"/>
     </row>
     <row r="383" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A383" s="28">
+      <c r="A383" s="27">
         <v>382</v>
       </c>
       <c r="B383" s="6" t="s">
@@ -16359,7 +16087,7 @@
       <c r="AH383" s="4"/>
     </row>
     <row r="384" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A384" s="28">
+      <c r="A384" s="27">
         <v>383</v>
       </c>
       <c r="B384" s="6" t="s">
@@ -16399,7 +16127,7 @@
       <c r="AH384" s="4"/>
     </row>
     <row r="385" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A385" s="28">
+      <c r="A385" s="27">
         <v>384</v>
       </c>
       <c r="B385" s="6" t="s">
@@ -16439,7 +16167,7 @@
       <c r="AH385" s="4"/>
     </row>
     <row r="386" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A386" s="28">
+      <c r="A386" s="27">
         <v>385</v>
       </c>
       <c r="B386" s="6" t="s">
@@ -16479,7 +16207,7 @@
       <c r="AH386" s="4"/>
     </row>
     <row r="387" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A387" s="28">
+      <c r="A387" s="27">
         <v>386</v>
       </c>
       <c r="B387" s="6" t="s">
@@ -16519,7 +16247,7 @@
       <c r="AH387" s="4"/>
     </row>
     <row r="388" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A388" s="28">
+      <c r="A388" s="27">
         <v>387</v>
       </c>
       <c r="B388" s="6" t="s">
@@ -16559,7 +16287,7 @@
       <c r="AH388" s="4"/>
     </row>
     <row r="389" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A389" s="28">
+      <c r="A389" s="27">
         <v>388</v>
       </c>
       <c r="B389" s="6" t="s">
@@ -16599,7 +16327,7 @@
       <c r="AH389" s="4"/>
     </row>
     <row r="390" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A390" s="28">
+      <c r="A390" s="27">
         <v>389</v>
       </c>
       <c r="B390" s="6" t="s">
@@ -16639,7 +16367,7 @@
       <c r="AH390" s="4"/>
     </row>
     <row r="391" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A391" s="28">
+      <c r="A391" s="27">
         <v>390</v>
       </c>
       <c r="B391" s="6" t="s">
@@ -16679,7 +16407,7 @@
       <c r="AH391" s="4"/>
     </row>
     <row r="392" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A392" s="28">
+      <c r="A392" s="27">
         <v>391</v>
       </c>
       <c r="B392" s="6" t="s">
@@ -16719,7 +16447,7 @@
       <c r="AH392" s="4"/>
     </row>
     <row r="393" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A393" s="28">
+      <c r="A393" s="27">
         <v>392</v>
       </c>
       <c r="B393" s="6" t="s">
@@ -16759,7 +16487,7 @@
       <c r="AH393" s="4"/>
     </row>
     <row r="394" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A394" s="28">
+      <c r="A394" s="27">
         <v>393</v>
       </c>
       <c r="B394" s="6" t="s">
@@ -16799,7 +16527,7 @@
       <c r="AH394" s="4"/>
     </row>
     <row r="395" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A395" s="28">
+      <c r="A395" s="27">
         <v>394</v>
       </c>
       <c r="B395" s="6" t="s">
@@ -16839,7 +16567,7 @@
       <c r="AH395" s="4"/>
     </row>
     <row r="396" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A396" s="28">
+      <c r="A396" s="27">
         <v>395</v>
       </c>
       <c r="B396" s="6" t="s">
@@ -16879,7 +16607,7 @@
       <c r="AH396" s="4"/>
     </row>
     <row r="397" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A397" s="28">
+      <c r="A397" s="27">
         <v>396</v>
       </c>
       <c r="B397" s="6" t="s">
@@ -16919,7 +16647,7 @@
       <c r="AH397" s="4"/>
     </row>
     <row r="398" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A398" s="28">
+      <c r="A398" s="27">
         <v>397</v>
       </c>
       <c r="B398" s="6" t="s">
@@ -16959,7 +16687,7 @@
       <c r="AH398" s="4"/>
     </row>
     <row r="399" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A399" s="28">
+      <c r="A399" s="27">
         <v>398</v>
       </c>
       <c r="B399" s="6" t="s">
@@ -16999,7 +16727,7 @@
       <c r="AH399" s="4"/>
     </row>
     <row r="400" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A400" s="28">
+      <c r="A400" s="27">
         <v>399</v>
       </c>
       <c r="B400" s="6" t="s">
@@ -17039,7 +16767,7 @@
       <c r="AH400" s="4"/>
     </row>
     <row r="401" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A401" s="28">
+      <c r="A401" s="27">
         <v>400</v>
       </c>
       <c r="B401" s="6" t="s">
@@ -17079,7 +16807,7 @@
       <c r="AH401" s="4"/>
     </row>
     <row r="402" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A402" s="28">
+      <c r="A402" s="27">
         <v>401</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -17119,7 +16847,7 @@
       <c r="AH402" s="4"/>
     </row>
     <row r="403" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A403" s="28">
+      <c r="A403" s="27">
         <v>402</v>
       </c>
       <c r="B403" s="6" t="s">
@@ -17159,7 +16887,7 @@
       <c r="AH403" s="4"/>
     </row>
     <row r="404" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A404" s="28">
+      <c r="A404" s="27">
         <v>403</v>
       </c>
       <c r="B404" s="6" t="s">
@@ -17199,7 +16927,7 @@
       <c r="AH404" s="4"/>
     </row>
     <row r="405" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A405" s="28">
+      <c r="A405" s="27">
         <v>404</v>
       </c>
       <c r="B405" s="6" t="s">
@@ -17239,7 +16967,7 @@
       <c r="AH405" s="4"/>
     </row>
     <row r="406" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A406" s="28">
+      <c r="A406" s="27">
         <v>405</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -17279,7 +17007,7 @@
       <c r="AH406" s="4"/>
     </row>
     <row r="407" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A407" s="28">
+      <c r="A407" s="27">
         <v>406</v>
       </c>
       <c r="B407" s="6" t="s">
@@ -17319,7 +17047,7 @@
       <c r="AH407" s="4"/>
     </row>
     <row r="408" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A408" s="28">
+      <c r="A408" s="27">
         <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
@@ -17359,7 +17087,7 @@
       <c r="AH408" s="4"/>
     </row>
     <row r="409" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A409" s="28">
+      <c r="A409" s="27">
         <v>408</v>
       </c>
       <c r="B409" s="6" t="s">
@@ -17399,7 +17127,7 @@
       <c r="AH409" s="4"/>
     </row>
     <row r="410" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A410" s="28">
+      <c r="A410" s="27">
         <v>409</v>
       </c>
       <c r="B410" s="6" t="s">
@@ -17439,7 +17167,7 @@
       <c r="AH410" s="4"/>
     </row>
     <row r="411" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A411" s="28">
+      <c r="A411" s="27">
         <v>410</v>
       </c>
       <c r="B411" s="6" t="s">
@@ -17479,7 +17207,7 @@
       <c r="AH411" s="4"/>
     </row>
     <row r="412" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A412" s="28">
+      <c r="A412" s="27">
         <v>411</v>
       </c>
       <c r="B412" s="6" t="s">
@@ -17519,7 +17247,7 @@
       <c r="AH412" s="4"/>
     </row>
     <row r="413" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A413" s="28">
+      <c r="A413" s="27">
         <v>412</v>
       </c>
       <c r="B413" s="6" t="s">
@@ -17559,7 +17287,7 @@
       <c r="AH413" s="4"/>
     </row>
     <row r="414" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A414" s="28">
+      <c r="A414" s="27">
         <v>413</v>
       </c>
       <c r="B414" s="6" t="s">
@@ -17599,7 +17327,7 @@
       <c r="AH414" s="4"/>
     </row>
     <row r="415" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A415" s="28">
+      <c r="A415" s="27">
         <v>414</v>
       </c>
       <c r="B415" s="6" t="s">
@@ -17639,7 +17367,7 @@
       <c r="AH415" s="4"/>
     </row>
     <row r="416" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A416" s="28">
+      <c r="A416" s="27">
         <v>415</v>
       </c>
       <c r="B416" s="6" t="s">
@@ -17679,7 +17407,7 @@
       <c r="AH416" s="4"/>
     </row>
     <row r="417" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A417" s="28">
+      <c r="A417" s="27">
         <v>416</v>
       </c>
       <c r="B417" s="6" t="s">
@@ -17719,7 +17447,7 @@
       <c r="AH417" s="4"/>
     </row>
     <row r="418" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A418" s="28">
+      <c r="A418" s="27">
         <v>417</v>
       </c>
       <c r="B418" s="6" t="s">
@@ -17759,7 +17487,7 @@
       <c r="AH418" s="4"/>
     </row>
     <row r="419" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A419" s="28">
+      <c r="A419" s="27">
         <v>418</v>
       </c>
       <c r="B419" s="6" t="s">
@@ -17799,7 +17527,7 @@
       <c r="AH419" s="4"/>
     </row>
     <row r="420" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A420" s="28">
+      <c r="A420" s="27">
         <v>419</v>
       </c>
       <c r="B420" s="6" t="s">
@@ -17839,7 +17567,7 @@
       <c r="AH420" s="4"/>
     </row>
     <row r="421" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A421" s="29">
+      <c r="A421" s="28">
         <v>420</v>
       </c>
       <c r="B421" s="6" t="s">
@@ -17879,7 +17607,7 @@
       <c r="AH421" s="4"/>
     </row>
     <row r="422" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A422" s="29">
+      <c r="A422" s="28">
         <v>421</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -17919,7 +17647,7 @@
       <c r="AH422" s="4"/>
     </row>
     <row r="423" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A423" s="29">
+      <c r="A423" s="28">
         <v>422</v>
       </c>
       <c r="B423" s="6" t="s">
@@ -17959,7 +17687,7 @@
       <c r="AH423" s="4"/>
     </row>
     <row r="424" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A424" s="29">
+      <c r="A424" s="28">
         <v>423</v>
       </c>
       <c r="B424" s="6" t="s">
@@ -17999,7 +17727,7 @@
       <c r="AH424" s="4"/>
     </row>
     <row r="425" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A425" s="29">
+      <c r="A425" s="28">
         <v>424</v>
       </c>
       <c r="B425" s="6" t="s">
@@ -18039,7 +17767,7 @@
       <c r="AH425" s="4"/>
     </row>
     <row r="426" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A426" s="29">
+      <c r="A426" s="28">
         <v>425</v>
       </c>
       <c r="B426" s="6" t="s">
@@ -18079,7 +17807,7 @@
       <c r="AH426" s="4"/>
     </row>
     <row r="427" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A427" s="29">
+      <c r="A427" s="28">
         <v>426</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -18119,7 +17847,7 @@
       <c r="AH427" s="4"/>
     </row>
     <row r="428" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A428" s="29">
+      <c r="A428" s="28">
         <v>427</v>
       </c>
       <c r="B428" s="6" t="s">
@@ -18159,7 +17887,7 @@
       <c r="AH428" s="4"/>
     </row>
     <row r="429" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A429" s="29">
+      <c r="A429" s="28">
         <v>428</v>
       </c>
       <c r="B429" s="6" t="s">
@@ -18199,7 +17927,7 @@
       <c r="AH429" s="4"/>
     </row>
     <row r="430" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A430" s="29">
+      <c r="A430" s="28">
         <v>429</v>
       </c>
       <c r="B430" s="6" t="s">
@@ -18239,7 +17967,7 @@
       <c r="AH430" s="4"/>
     </row>
     <row r="431" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A431" s="29">
+      <c r="A431" s="28">
         <v>430</v>
       </c>
       <c r="B431" s="6" t="s">
@@ -18279,7 +18007,7 @@
       <c r="AH431" s="4"/>
     </row>
     <row r="432" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A432" s="29">
+      <c r="A432" s="28">
         <v>431</v>
       </c>
       <c r="B432" s="6" t="s">
@@ -18319,7 +18047,7 @@
       <c r="AH432" s="4"/>
     </row>
     <row r="433" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A433" s="29">
+      <c r="A433" s="28">
         <v>432</v>
       </c>
       <c r="B433" s="6" t="s">
@@ -18359,7 +18087,7 @@
       <c r="AH433" s="4"/>
     </row>
     <row r="434" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A434" s="29">
+      <c r="A434" s="28">
         <v>433</v>
       </c>
       <c r="B434" s="6" t="s">
@@ -18399,7 +18127,7 @@
       <c r="AH434" s="4"/>
     </row>
     <row r="435" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A435" s="29">
+      <c r="A435" s="28">
         <v>434</v>
       </c>
       <c r="B435" s="6" t="s">
@@ -18439,7 +18167,7 @@
       <c r="AH435" s="4"/>
     </row>
     <row r="436" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A436" s="29">
+      <c r="A436" s="28">
         <v>435</v>
       </c>
       <c r="B436" s="6" t="s">
@@ -18479,7 +18207,7 @@
       <c r="AH436" s="4"/>
     </row>
     <row r="437" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A437" s="29">
+      <c r="A437" s="28">
         <v>436</v>
       </c>
       <c r="B437" s="6" t="s">
@@ -18519,7 +18247,7 @@
       <c r="AH437" s="4"/>
     </row>
     <row r="438" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A438" s="29">
+      <c r="A438" s="28">
         <v>437</v>
       </c>
       <c r="B438" s="6" t="s">
@@ -18559,7 +18287,7 @@
       <c r="AH438" s="4"/>
     </row>
     <row r="439" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A439" s="29">
+      <c r="A439" s="28">
         <v>438</v>
       </c>
       <c r="B439" s="6" t="s">
@@ -18599,7 +18327,7 @@
       <c r="AH439" s="4"/>
     </row>
     <row r="440" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A440" s="29">
+      <c r="A440" s="28">
         <v>439</v>
       </c>
       <c r="B440" s="6" t="s">
@@ -18639,7 +18367,7 @@
       <c r="AH440" s="4"/>
     </row>
     <row r="441" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A441" s="29">
+      <c r="A441" s="28">
         <v>440</v>
       </c>
       <c r="B441" s="6" t="s">
@@ -18679,7 +18407,7 @@
       <c r="AH441" s="4"/>
     </row>
     <row r="442" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A442" s="29">
+      <c r="A442" s="28">
         <v>441</v>
       </c>
       <c r="B442" s="6" t="s">
@@ -18719,7 +18447,7 @@
       <c r="AH442" s="4"/>
     </row>
     <row r="443" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A443" s="29">
+      <c r="A443" s="28">
         <v>442</v>
       </c>
       <c r="B443" s="6" t="s">
@@ -18759,7 +18487,7 @@
       <c r="AH443" s="4"/>
     </row>
     <row r="444" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A444" s="29">
+      <c r="A444" s="28">
         <v>443</v>
       </c>
       <c r="B444" s="6" t="s">
@@ -18799,7 +18527,7 @@
       <c r="AH444" s="4"/>
     </row>
     <row r="445" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A445" s="29">
+      <c r="A445" s="28">
         <v>444</v>
       </c>
       <c r="B445" s="6" t="s">
@@ -18839,7 +18567,7 @@
       <c r="AH445" s="4"/>
     </row>
     <row r="446" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A446" s="29">
+      <c r="A446" s="28">
         <v>445</v>
       </c>
       <c r="B446" s="6" t="s">
@@ -18879,7 +18607,7 @@
       <c r="AH446" s="4"/>
     </row>
     <row r="447" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A447" s="29">
+      <c r="A447" s="28">
         <v>446</v>
       </c>
       <c r="B447" s="6" t="s">
@@ -18919,7 +18647,7 @@
       <c r="AH447" s="4"/>
     </row>
     <row r="448" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A448" s="29">
+      <c r="A448" s="28">
         <v>447</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -18959,7 +18687,7 @@
       <c r="AH448" s="4"/>
     </row>
     <row r="449" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A449" s="29">
+      <c r="A449" s="28">
         <v>448</v>
       </c>
       <c r="B449" s="6" t="s">
@@ -18999,7 +18727,7 @@
       <c r="AH449" s="4"/>
     </row>
     <row r="450" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A450" s="29">
+      <c r="A450" s="28">
         <v>449</v>
       </c>
       <c r="B450" s="6" t="s">
@@ -19039,7 +18767,7 @@
       <c r="AH450" s="4"/>
     </row>
     <row r="451" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A451" s="29">
+      <c r="A451" s="28">
         <v>450</v>
       </c>
       <c r="B451" s="6" t="s">
@@ -19079,7 +18807,7 @@
       <c r="AH451" s="4"/>
     </row>
     <row r="452" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A452" s="29">
+      <c r="A452" s="28">
         <v>451</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -19119,7 +18847,7 @@
       <c r="AH452" s="4"/>
     </row>
     <row r="453" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A453" s="29">
+      <c r="A453" s="28">
         <v>452</v>
       </c>
       <c r="B453" s="6" t="s">
@@ -19159,7 +18887,7 @@
       <c r="AH453" s="4"/>
     </row>
     <row r="454" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A454" s="29">
+      <c r="A454" s="28">
         <v>453</v>
       </c>
       <c r="B454" s="6" t="s">
@@ -19199,7 +18927,7 @@
       <c r="AH454" s="4"/>
     </row>
     <row r="455" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A455" s="29">
+      <c r="A455" s="28">
         <v>454</v>
       </c>
       <c r="B455" s="6" t="s">
@@ -19239,7 +18967,7 @@
       <c r="AH455" s="4"/>
     </row>
     <row r="456" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A456" s="29">
+      <c r="A456" s="28">
         <v>455</v>
       </c>
       <c r="B456" s="6" t="s">
@@ -19279,7 +19007,7 @@
       <c r="AH456" s="4"/>
     </row>
     <row r="457" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A457" s="29">
+      <c r="A457" s="28">
         <v>456</v>
       </c>
       <c r="B457" s="6" t="s">
@@ -19319,7 +19047,7 @@
       <c r="AH457" s="4"/>
     </row>
     <row r="458" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A458" s="29">
+      <c r="A458" s="28">
         <v>457</v>
       </c>
       <c r="B458" s="6" t="s">
@@ -19359,7 +19087,7 @@
       <c r="AH458" s="4"/>
     </row>
     <row r="459" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A459" s="29">
+      <c r="A459" s="28">
         <v>458</v>
       </c>
       <c r="B459" s="6" t="s">
@@ -19399,7 +19127,7 @@
       <c r="AH459" s="4"/>
     </row>
     <row r="460" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A460" s="29">
+      <c r="A460" s="28">
         <v>459</v>
       </c>
       <c r="B460" s="6" t="s">
@@ -19439,7 +19167,7 @@
       <c r="AH460" s="4"/>
     </row>
     <row r="461" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A461" s="29">
+      <c r="A461" s="28">
         <v>460</v>
       </c>
       <c r="B461" s="6" t="s">
@@ -19479,7 +19207,7 @@
       <c r="AH461" s="4"/>
     </row>
     <row r="462" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A462" s="29">
+      <c r="A462" s="28">
         <v>461</v>
       </c>
       <c r="B462" s="6" t="s">
@@ -19519,7 +19247,7 @@
       <c r="AH462" s="4"/>
     </row>
     <row r="463" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A463" s="29">
+      <c r="A463" s="28">
         <v>462</v>
       </c>
       <c r="B463" s="6" t="s">
@@ -19559,7 +19287,7 @@
       <c r="AH463" s="4"/>
     </row>
     <row r="464" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A464" s="29">
+      <c r="A464" s="28">
         <v>463</v>
       </c>
       <c r="B464" s="6" t="s">
@@ -19599,7 +19327,7 @@
       <c r="AH464" s="4"/>
     </row>
     <row r="465" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A465" s="29">
+      <c r="A465" s="28">
         <v>464</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -19639,7 +19367,7 @@
       <c r="AH465" s="4"/>
     </row>
     <row r="466" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A466" s="29">
+      <c r="A466" s="28">
         <v>465</v>
       </c>
       <c r="B466" s="6" t="s">
@@ -19679,7 +19407,7 @@
       <c r="AH466" s="4"/>
     </row>
     <row r="467" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A467" s="29">
+      <c r="A467" s="28">
         <v>466</v>
       </c>
       <c r="B467" s="6" t="s">
@@ -19719,7 +19447,7 @@
       <c r="AH467" s="4"/>
     </row>
     <row r="468" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A468" s="29">
+      <c r="A468" s="28">
         <v>467</v>
       </c>
       <c r="B468" s="6" t="s">
@@ -19759,7 +19487,7 @@
       <c r="AH468" s="4"/>
     </row>
     <row r="469" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A469" s="29">
+      <c r="A469" s="28">
         <v>468</v>
       </c>
       <c r="B469" s="6" t="s">
@@ -19799,7 +19527,7 @@
       <c r="AH469" s="4"/>
     </row>
     <row r="470" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A470" s="29">
+      <c r="A470" s="28">
         <v>469</v>
       </c>
       <c r="B470" s="6" t="s">
@@ -19839,7 +19567,7 @@
       <c r="AH470" s="4"/>
     </row>
     <row r="471" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A471" s="29">
+      <c r="A471" s="28">
         <v>470</v>
       </c>
       <c r="B471" s="6" t="s">
@@ -19879,7 +19607,7 @@
       <c r="AH471" s="4"/>
     </row>
     <row r="472" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A472" s="29">
+      <c r="A472" s="28">
         <v>471</v>
       </c>
       <c r="B472" s="6" t="s">
@@ -19919,7 +19647,7 @@
       <c r="AH472" s="4"/>
     </row>
     <row r="473" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A473" s="29">
+      <c r="A473" s="28">
         <v>472</v>
       </c>
       <c r="B473" s="6"/>
@@ -19957,7 +19685,7 @@
       <c r="AH473" s="4"/>
     </row>
     <row r="474" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A474" s="29">
+      <c r="A474" s="28">
         <v>473</v>
       </c>
       <c r="B474" s="6"/>
@@ -19995,7 +19723,7 @@
       <c r="AH474" s="4"/>
     </row>
     <row r="475" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A475" s="29">
+      <c r="A475" s="28">
         <v>474</v>
       </c>
       <c r="B475" s="6"/>
@@ -20033,7 +19761,7 @@
       <c r="AH475" s="4"/>
     </row>
     <row r="476" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A476" s="29">
+      <c r="A476" s="28">
         <v>475</v>
       </c>
       <c r="B476" s="6"/>
@@ -20071,7 +19799,7 @@
       <c r="AH476" s="4"/>
     </row>
     <row r="477" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A477" s="29">
+      <c r="A477" s="28">
         <v>476</v>
       </c>
       <c r="B477" s="6"/>
@@ -20109,7 +19837,7 @@
       <c r="AH477" s="4"/>
     </row>
     <row r="478" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A478" s="29">
+      <c r="A478" s="28">
         <v>477</v>
       </c>
       <c r="B478" s="6"/>
@@ -20121,8 +19849,7 @@
       <c r="F478" s="18"/>
       <c r="G478" s="18"/>
       <c r="H478" s="18"/>
-      <c r="I478" s="18"/>
-      <c r="J478" s="4" t="s">
+      <c r="I478" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K478" s="4"/>
@@ -20151,7 +19878,7 @@
       <c r="AH478" s="4"/>
     </row>
     <row r="479" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A479" s="29">
+      <c r="A479" s="28">
         <v>478</v>
       </c>
       <c r="B479" s="6"/>
@@ -20189,7 +19916,7 @@
       <c r="AH479" s="4"/>
     </row>
     <row r="480" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A480" s="29">
+      <c r="A480" s="28">
         <v>479</v>
       </c>
       <c r="B480" s="6"/>
@@ -20229,7 +19956,7 @@
       <c r="AH480" s="4"/>
     </row>
     <row r="481" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A481" s="29">
+      <c r="A481" s="28">
         <v>480</v>
       </c>
       <c r="B481" s="6"/>
@@ -20267,7 +19994,7 @@
       <c r="AH481" s="4"/>
     </row>
     <row r="482" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A482" s="29">
+      <c r="A482" s="28">
         <v>481</v>
       </c>
       <c r="B482" s="6"/>
@@ -20305,7 +20032,7 @@
       <c r="AH482" s="4"/>
     </row>
     <row r="483" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A483" s="29">
+      <c r="A483" s="28">
         <v>482</v>
       </c>
       <c r="B483" s="6"/>
@@ -20343,7 +20070,7 @@
       <c r="AH483" s="4"/>
     </row>
     <row r="484" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A484" s="29">
+      <c r="A484" s="28">
         <v>483</v>
       </c>
       <c r="B484" s="6"/>
@@ -20383,7 +20110,7 @@
       <c r="AH484" s="4"/>
     </row>
     <row r="485" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A485" s="29">
+      <c r="A485" s="28">
         <v>484</v>
       </c>
       <c r="B485" s="6"/>
@@ -20421,7 +20148,7 @@
       <c r="AH485" s="4"/>
     </row>
     <row r="486" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A486" s="29">
+      <c r="A486" s="28">
         <v>485</v>
       </c>
       <c r="B486" s="6" t="s">
@@ -20461,7 +20188,7 @@
       <c r="AH486" s="4"/>
     </row>
     <row r="487" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A487" s="29">
+      <c r="A487" s="28">
         <v>486</v>
       </c>
       <c r="B487" s="6" t="s">
@@ -20501,7 +20228,7 @@
       <c r="AH487" s="4"/>
     </row>
     <row r="488" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A488" s="29">
+      <c r="A488" s="28">
         <v>487</v>
       </c>
       <c r="B488" s="6" t="s">
@@ -20541,7 +20268,7 @@
       <c r="AH488" s="4"/>
     </row>
     <row r="489" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A489" s="29">
+      <c r="A489" s="28">
         <v>488</v>
       </c>
       <c r="B489" s="6" t="s">
@@ -20581,7 +20308,7 @@
       <c r="AH489" s="4"/>
     </row>
     <row r="490" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A490" s="29">
+      <c r="A490" s="28">
         <v>489</v>
       </c>
       <c r="B490" s="6" t="s">
@@ -20621,7 +20348,7 @@
       <c r="AH490" s="4"/>
     </row>
     <row r="491" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A491" s="29">
+      <c r="A491" s="28">
         <v>490</v>
       </c>
       <c r="B491" s="6" t="s">
@@ -20661,7 +20388,7 @@
       <c r="AH491" s="4"/>
     </row>
     <row r="492" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A492" s="29">
+      <c r="A492" s="28">
         <v>491</v>
       </c>
       <c r="B492" s="6" t="s">
@@ -20701,7 +20428,7 @@
       <c r="AH492" s="4"/>
     </row>
     <row r="493" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A493" s="29">
+      <c r="A493" s="28">
         <v>492</v>
       </c>
       <c r="B493" s="6" t="s">
@@ -20741,7 +20468,7 @@
       <c r="AH493" s="4"/>
     </row>
     <row r="494" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A494" s="29">
+      <c r="A494" s="28">
         <v>493</v>
       </c>
       <c r="B494" s="6" t="s">
@@ -20781,7 +20508,7 @@
       <c r="AH494" s="4"/>
     </row>
     <row r="495" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A495" s="29">
+      <c r="A495" s="28">
         <v>494</v>
       </c>
       <c r="B495" s="6" t="s">
@@ -20821,7 +20548,7 @@
       <c r="AH495" s="4"/>
     </row>
     <row r="496" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A496" s="29">
+      <c r="A496" s="28">
         <v>495</v>
       </c>
       <c r="B496" s="6" t="s">
@@ -20861,7 +20588,7 @@
       <c r="AH496" s="4"/>
     </row>
     <row r="497" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A497" s="29">
+      <c r="A497" s="28">
         <v>496</v>
       </c>
       <c r="B497" s="6" t="s">
@@ -20901,7 +20628,7 @@
       <c r="AH497" s="4"/>
     </row>
     <row r="498" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A498" s="29">
+      <c r="A498" s="28">
         <v>497</v>
       </c>
       <c r="B498" s="6" t="s">
@@ -20941,7 +20668,7 @@
       <c r="AH498" s="4"/>
     </row>
     <row r="499" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A499" s="29">
+      <c r="A499" s="28">
         <v>498</v>
       </c>
       <c r="B499" s="6" t="s">
@@ -20981,7 +20708,7 @@
       <c r="AH499" s="4"/>
     </row>
     <row r="500" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A500" s="29">
+      <c r="A500" s="28">
         <v>499</v>
       </c>
       <c r="B500" s="6" t="s">
@@ -21021,7 +20748,7 @@
       <c r="AH500" s="4"/>
     </row>
     <row r="501" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A501" s="29">
+      <c r="A501" s="28">
         <v>500</v>
       </c>
       <c r="B501" s="6" t="s">
@@ -21061,7 +20788,7 @@
       <c r="AH501" s="4"/>
     </row>
     <row r="502" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A502" s="29">
+      <c r="A502" s="28">
         <v>501</v>
       </c>
       <c r="B502" s="6" t="s">
@@ -21101,7 +20828,7 @@
       <c r="AH502" s="4"/>
     </row>
     <row r="503" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A503" s="29">
+      <c r="A503" s="28">
         <v>502</v>
       </c>
       <c r="B503" s="6" t="s">
@@ -21141,7 +20868,7 @@
       <c r="AH503" s="4"/>
     </row>
     <row r="504" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A504" s="29">
+      <c r="A504" s="28">
         <v>503</v>
       </c>
       <c r="B504" s="6" t="s">
@@ -21181,7 +20908,7 @@
       <c r="AH504" s="4"/>
     </row>
     <row r="505" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A505" s="29">
+      <c r="A505" s="28">
         <v>504</v>
       </c>
       <c r="B505" s="6" t="s">
@@ -21221,7 +20948,7 @@
       <c r="AH505" s="4"/>
     </row>
     <row r="506" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A506" s="29">
+      <c r="A506" s="28">
         <v>505</v>
       </c>
       <c r="B506" s="6" t="s">
@@ -21261,7 +20988,7 @@
       <c r="AH506" s="4"/>
     </row>
     <row r="507" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A507" s="29">
+      <c r="A507" s="28">
         <v>506</v>
       </c>
       <c r="B507" s="6" t="s">
@@ -21301,7 +21028,7 @@
       <c r="AH507" s="4"/>
     </row>
     <row r="508" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A508" s="29">
+      <c r="A508" s="28">
         <v>507</v>
       </c>
       <c r="B508" s="6" t="s">
@@ -21341,7 +21068,7 @@
       <c r="AH508" s="4"/>
     </row>
     <row r="509" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A509" s="29">
+      <c r="A509" s="28">
         <v>508</v>
       </c>
       <c r="B509" s="6" t="s">
@@ -21381,7 +21108,7 @@
       <c r="AH509" s="4"/>
     </row>
     <row r="510" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A510" s="29">
+      <c r="A510" s="28">
         <v>509</v>
       </c>
       <c r="B510" s="6" t="s">
@@ -21421,7 +21148,7 @@
       <c r="AH510" s="4"/>
     </row>
     <row r="511" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A511" s="29">
+      <c r="A511" s="28">
         <v>510</v>
       </c>
       <c r="B511" s="6" t="s">
@@ -21461,7 +21188,7 @@
       <c r="AH511" s="4"/>
     </row>
     <row r="512" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A512" s="29">
+      <c r="A512" s="28">
         <v>511</v>
       </c>
       <c r="B512" s="6" t="s">
@@ -21501,7 +21228,7 @@
       <c r="AH512" s="4"/>
     </row>
     <row r="513" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A513" s="29">
+      <c r="A513" s="28">
         <v>512</v>
       </c>
       <c r="B513" s="6" t="s">
@@ -21541,7 +21268,7 @@
       <c r="AH513" s="4"/>
     </row>
     <row r="514" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A514" s="29">
+      <c r="A514" s="28">
         <v>513</v>
       </c>
       <c r="B514" s="6" t="s">
@@ -21581,7 +21308,7 @@
       <c r="AH514" s="4"/>
     </row>
     <row r="515" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A515" s="29">
+      <c r="A515" s="28">
         <v>514</v>
       </c>
       <c r="B515" s="6" t="s">
@@ -21621,7 +21348,7 @@
       <c r="AH515" s="4"/>
     </row>
     <row r="516" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A516" s="29">
+      <c r="A516" s="28">
         <v>515</v>
       </c>
       <c r="B516" s="6" t="s">
@@ -21661,7 +21388,7 @@
       <c r="AH516" s="4"/>
     </row>
     <row r="517" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A517" s="29">
+      <c r="A517" s="28">
         <v>516</v>
       </c>
       <c r="B517" s="6" t="s">
@@ -21701,7 +21428,7 @@
       <c r="AH517" s="4"/>
     </row>
     <row r="518" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A518" s="29">
+      <c r="A518" s="28">
         <v>517</v>
       </c>
       <c r="B518" s="6" t="s">
@@ -21741,7 +21468,7 @@
       <c r="AH518" s="4"/>
     </row>
     <row r="519" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A519" s="29">
+      <c r="A519" s="28">
         <v>518</v>
       </c>
       <c r="B519" s="6" t="s">
@@ -21781,7 +21508,7 @@
       <c r="AH519" s="4"/>
     </row>
     <row r="520" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A520" s="29">
+      <c r="A520" s="28">
         <v>519</v>
       </c>
       <c r="B520" s="6" t="s">
@@ -21821,7 +21548,7 @@
       <c r="AH520" s="4"/>
     </row>
     <row r="521" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A521" s="29">
+      <c r="A521" s="28">
         <v>520</v>
       </c>
       <c r="B521" s="6" t="s">
@@ -21861,7 +21588,7 @@
       <c r="AH521" s="4"/>
     </row>
     <row r="522" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A522" s="29">
+      <c r="A522" s="28">
         <v>521</v>
       </c>
       <c r="B522" s="6" t="s">
@@ -21901,7 +21628,7 @@
       <c r="AH522" s="4"/>
     </row>
     <row r="523" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A523" s="29">
+      <c r="A523" s="28">
         <v>522</v>
       </c>
       <c r="B523" s="6" t="s">
@@ -21941,7 +21668,7 @@
       <c r="AH523" s="4"/>
     </row>
     <row r="524" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A524" s="29">
+      <c r="A524" s="28">
         <v>523</v>
       </c>
       <c r="B524" s="6" t="s">
@@ -21981,7 +21708,7 @@
       <c r="AH524" s="4"/>
     </row>
     <row r="525" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A525" s="29">
+      <c r="A525" s="28">
         <v>524</v>
       </c>
       <c r="B525" s="6" t="s">
@@ -22021,7 +21748,7 @@
       <c r="AH525" s="4"/>
     </row>
     <row r="526" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A526" s="29">
+      <c r="A526" s="28">
         <v>525</v>
       </c>
       <c r="B526" s="6" t="s">
@@ -22061,7 +21788,7 @@
       <c r="AH526" s="4"/>
     </row>
     <row r="527" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A527" s="29">
+      <c r="A527" s="28">
         <v>526</v>
       </c>
       <c r="B527" s="6" t="s">
@@ -22101,7 +21828,7 @@
       <c r="AH527" s="4"/>
     </row>
     <row r="528" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A528" s="29">
+      <c r="A528" s="28">
         <v>527</v>
       </c>
       <c r="B528" s="6" t="s">
@@ -22141,7 +21868,7 @@
       <c r="AH528" s="4"/>
     </row>
     <row r="529" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A529" s="29">
+      <c r="A529" s="28">
         <v>528</v>
       </c>
       <c r="B529" s="6" t="s">
@@ -22181,7 +21908,7 @@
       <c r="AH529" s="4"/>
     </row>
     <row r="530" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A530" s="29">
+      <c r="A530" s="28">
         <v>529</v>
       </c>
       <c r="B530" s="6" t="s">
@@ -22221,7 +21948,7 @@
       <c r="AH530" s="4"/>
     </row>
     <row r="531" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A531" s="29">
+      <c r="A531" s="28">
         <v>530</v>
       </c>
       <c r="B531" s="6" t="s">
@@ -22261,7 +21988,7 @@
       <c r="AH531" s="4"/>
     </row>
     <row r="532" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A532" s="29">
+      <c r="A532" s="28">
         <v>531</v>
       </c>
       <c r="B532" s="6" t="s">
@@ -22301,7 +22028,7 @@
       <c r="AH532" s="4"/>
     </row>
     <row r="533" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A533" s="29">
+      <c r="A533" s="28">
         <v>532</v>
       </c>
       <c r="B533" s="6" t="s">
@@ -22341,7 +22068,7 @@
       <c r="AH533" s="4"/>
     </row>
     <row r="534" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A534" s="29">
+      <c r="A534" s="28">
         <v>533</v>
       </c>
       <c r="B534" s="6" t="s">
@@ -22381,7 +22108,7 @@
       <c r="AH534" s="4"/>
     </row>
     <row r="535" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A535" s="29">
+      <c r="A535" s="28">
         <v>534</v>
       </c>
       <c r="B535" s="6" t="s">
@@ -22421,7 +22148,7 @@
       <c r="AH535" s="4"/>
     </row>
     <row r="536" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A536" s="29">
+      <c r="A536" s="28">
         <v>535</v>
       </c>
       <c r="B536" s="6" t="s">
@@ -22461,7 +22188,7 @@
       <c r="AH536" s="4"/>
     </row>
     <row r="537" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A537" s="29">
+      <c r="A537" s="28">
         <v>536</v>
       </c>
       <c r="B537" s="6" t="s">
@@ -22501,7 +22228,7 @@
       <c r="AH537" s="4"/>
     </row>
     <row r="538" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A538" s="29">
+      <c r="A538" s="28">
         <v>537</v>
       </c>
       <c r="B538" s="6" t="s">
@@ -22541,7 +22268,7 @@
       <c r="AH538" s="4"/>
     </row>
     <row r="539" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A539" s="29">
+      <c r="A539" s="28">
         <v>538</v>
       </c>
       <c r="B539" s="6" t="s">
@@ -22581,7 +22308,7 @@
       <c r="AH539" s="4"/>
     </row>
     <row r="540" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A540" s="29">
+      <c r="A540" s="28">
         <v>539</v>
       </c>
       <c r="B540" s="6" t="s">
@@ -22621,7 +22348,7 @@
       <c r="AH540" s="4"/>
     </row>
     <row r="541" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A541" s="29">
+      <c r="A541" s="28">
         <v>540</v>
       </c>
       <c r="B541" s="6" t="s">
@@ -22661,7 +22388,7 @@
       <c r="AH541" s="4"/>
     </row>
     <row r="542" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A542" s="29">
+      <c r="A542" s="28">
         <v>541</v>
       </c>
       <c r="B542" s="6" t="s">
@@ -22701,7 +22428,7 @@
       <c r="AH542" s="4"/>
     </row>
     <row r="543" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A543" s="29">
+      <c r="A543" s="28">
         <v>542</v>
       </c>
       <c r="B543" s="6" t="s">
@@ -22741,7 +22468,7 @@
       <c r="AH543" s="4"/>
     </row>
     <row r="544" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A544" s="29">
+      <c r="A544" s="28">
         <v>543</v>
       </c>
       <c r="B544" s="6" t="s">
@@ -22781,7 +22508,7 @@
       <c r="AH544" s="4"/>
     </row>
     <row r="545" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A545" s="29">
+      <c r="A545" s="28">
         <v>544</v>
       </c>
       <c r="B545" s="6" t="s">
@@ -22821,7 +22548,7 @@
       <c r="AH545" s="4"/>
     </row>
     <row r="546" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A546" s="29">
+      <c r="A546" s="28">
         <v>545</v>
       </c>
       <c r="B546" s="6" t="s">
@@ -22861,7 +22588,7 @@
       <c r="AH546" s="4"/>
     </row>
     <row r="547" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A547" s="29">
+      <c r="A547" s="28">
         <v>546</v>
       </c>
       <c r="B547" s="6" t="s">
@@ -22901,7 +22628,7 @@
       <c r="AH547" s="4"/>
     </row>
     <row r="548" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A548" s="29">
+      <c r="A548" s="28">
         <v>547</v>
       </c>
       <c r="B548" s="6" t="s">
@@ -22941,7 +22668,7 @@
       <c r="AH548" s="4"/>
     </row>
     <row r="549" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A549" s="29">
+      <c r="A549" s="28">
         <v>548</v>
       </c>
       <c r="B549" s="6" t="s">
@@ -22952,14 +22679,11 @@
       <c r="E549" s="18"/>
       <c r="F549" s="18"/>
       <c r="G549" s="18"/>
-      <c r="H549" s="18"/>
-      <c r="I549" s="18"/>
-      <c r="J549" s="18"/>
-      <c r="K549" s="4" t="s">
+      <c r="H549" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L549" s="4"/>
-      <c r="M549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
       <c r="N549" s="4"/>
       <c r="O549" s="5"/>
       <c r="P549" s="6"/>
@@ -22983,7 +22707,7 @@
       <c r="AH549" s="4"/>
     </row>
     <row r="550" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A550" s="29">
+      <c r="A550" s="28">
         <v>549</v>
       </c>
       <c r="B550" s="6" t="s">
@@ -22994,14 +22718,11 @@
       <c r="E550" s="18"/>
       <c r="F550" s="18"/>
       <c r="G550" s="18"/>
-      <c r="H550" s="18"/>
-      <c r="I550" s="18"/>
-      <c r="J550" s="18"/>
-      <c r="K550" s="4" t="s">
+      <c r="H550" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L550" s="4"/>
-      <c r="M550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
       <c r="N550" s="4"/>
       <c r="O550" s="5"/>
       <c r="P550" s="6"/>
@@ -23025,7 +22746,7 @@
       <c r="AH550" s="4"/>
     </row>
     <row r="551" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A551" s="29">
+      <c r="A551" s="28">
         <v>550</v>
       </c>
       <c r="B551" s="6" t="s">
@@ -23036,14 +22757,11 @@
       <c r="E551" s="18"/>
       <c r="F551" s="18"/>
       <c r="G551" s="18"/>
-      <c r="H551" s="18"/>
-      <c r="I551" s="18"/>
-      <c r="J551" s="18"/>
-      <c r="K551" s="4" t="s">
+      <c r="H551" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L551" s="4"/>
-      <c r="M551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
       <c r="N551" s="4"/>
       <c r="O551" s="5"/>
       <c r="P551" s="6"/>
@@ -23067,7 +22785,7 @@
       <c r="AH551" s="4"/>
     </row>
     <row r="552" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A552" s="29">
+      <c r="A552" s="28">
         <v>551</v>
       </c>
       <c r="B552" s="6" t="s">
@@ -23078,13 +22796,10 @@
       <c r="E552" s="18"/>
       <c r="F552" s="18"/>
       <c r="G552" s="18"/>
-      <c r="H552" s="18"/>
-      <c r="I552" s="18"/>
-      <c r="J552" s="18"/>
-      <c r="K552" s="4" t="s">
+      <c r="H552" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M552" s="4"/>
+      <c r="J552" s="4"/>
       <c r="N552" s="4"/>
       <c r="O552" s="5"/>
       <c r="P552" s="6"/>
@@ -23108,7 +22823,7 @@
       <c r="AH552" s="4"/>
     </row>
     <row r="553" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A553" s="29">
+      <c r="A553" s="28">
         <v>552</v>
       </c>
       <c r="B553" s="6" t="s">
@@ -23120,11 +22835,11 @@
       <c r="F553" s="18"/>
       <c r="G553" s="18"/>
       <c r="H553" s="18"/>
-      <c r="I553" s="18"/>
-      <c r="J553" s="18"/>
-      <c r="K553" s="18"/>
-      <c r="L553" s="4" t="s">
+      <c r="I553" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L553" t="s">
+        <v>36</v>
       </c>
       <c r="N553" s="4"/>
       <c r="O553" s="5"/>
@@ -23149,7 +22864,7 @@
       <c r="AH553" s="4"/>
     </row>
     <row r="554" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A554" s="29">
+      <c r="A554" s="28">
         <v>553</v>
       </c>
       <c r="B554" s="6" t="s">
@@ -23162,11 +22877,11 @@
       <c r="G554" s="18"/>
       <c r="H554" s="18"/>
       <c r="I554" s="18"/>
-      <c r="J554" s="18"/>
-      <c r="K554" s="18"/>
-      <c r="L554" s="18"/>
-      <c r="M554" s="4" t="s">
+      <c r="J554" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L554" t="s">
+        <v>36</v>
       </c>
       <c r="O554" s="5"/>
       <c r="P554" s="6"/>
@@ -23190,7 +22905,7 @@
       <c r="AH554" s="4"/>
     </row>
     <row r="555" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A555" s="29">
+      <c r="A555" s="28">
         <v>554</v>
       </c>
       <c r="B555" s="6" t="s">
@@ -23203,11 +22918,11 @@
       <c r="G555" s="18"/>
       <c r="H555" s="18"/>
       <c r="I555" s="18"/>
-      <c r="J555" s="18"/>
-      <c r="K555" s="18"/>
-      <c r="L555" s="18"/>
-      <c r="M555" s="4" t="s">
+      <c r="J555" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L555" t="s">
+        <v>36</v>
       </c>
       <c r="O555" s="5"/>
       <c r="P555" s="6"/>
@@ -23231,7 +22946,7 @@
       <c r="AH555" s="4"/>
     </row>
     <row r="556" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A556" s="29">
+      <c r="A556" s="28">
         <v>555</v>
       </c>
       <c r="B556" s="6" t="s">
@@ -23244,11 +22959,11 @@
       <c r="G556" s="18"/>
       <c r="H556" s="18"/>
       <c r="I556" s="18"/>
-      <c r="J556" s="18"/>
-      <c r="K556" s="18"/>
-      <c r="L556" s="18"/>
-      <c r="M556" s="4" t="s">
+      <c r="J556" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="M556" t="s">
+        <v>36</v>
       </c>
       <c r="O556" s="5"/>
       <c r="P556" s="6"/>
@@ -23272,7 +22987,7 @@
       <c r="AH556" s="4"/>
     </row>
     <row r="557" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A557" s="29">
+      <c r="A557" s="28">
         <v>556</v>
       </c>
       <c r="B557" s="6" t="s">
@@ -23285,19 +23000,18 @@
       <c r="G557" s="18"/>
       <c r="H557" s="18"/>
       <c r="I557" s="18"/>
-      <c r="J557" s="18"/>
-      <c r="K557" s="18"/>
-      <c r="L557" s="18"/>
-      <c r="M557" s="4" t="s">
+      <c r="J557" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L557" t="s">
+        <v>34</v>
+      </c>
+      <c r="M557" s="33"/>
       <c r="N557" t="s">
-        <v>32</v>
-      </c>
-      <c r="O557" s="33"/>
-      <c r="P557" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="O557" s="5"/>
+      <c r="P557" s="6"/>
       <c r="Q557" s="4"/>
       <c r="R557" s="4"/>
       <c r="S557" s="4"/>
@@ -23318,7 +23032,7 @@
       <c r="AH557" s="4"/>
     </row>
     <row r="558" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A558" s="29">
+      <c r="A558" s="28">
         <v>557</v>
       </c>
       <c r="B558" s="6" t="s">
@@ -23331,10 +23045,7 @@
       <c r="G558" s="18"/>
       <c r="H558" s="18"/>
       <c r="I558" s="18"/>
-      <c r="J558" s="18"/>
-      <c r="K558" s="18"/>
-      <c r="L558" s="18"/>
-      <c r="M558" s="4" t="s">
+      <c r="J558" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O558" s="5"/>
@@ -23359,7 +23070,7 @@
       <c r="AH558" s="4"/>
     </row>
     <row r="559" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A559" s="29">
+      <c r="A559" s="28">
         <v>558</v>
       </c>
       <c r="B559" s="6" t="s">
@@ -23401,7 +23112,7 @@
       <c r="AH559" s="4"/>
     </row>
     <row r="560" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A560" s="29">
+      <c r="A560" s="28">
         <v>559</v>
       </c>
       <c r="B560" s="6" t="s">
@@ -23412,15 +23123,12 @@
       <c r="E560" s="18"/>
       <c r="F560" s="18"/>
       <c r="G560" s="18"/>
-      <c r="H560" s="18"/>
-      <c r="I560" s="18"/>
-      <c r="J560" s="4" t="s">
+      <c r="H560" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N560" s="4" t="s">
+      <c r="O560" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O560" s="19"/>
       <c r="P560" s="6" t="s">
         <v>15</v>
       </c>
@@ -23444,7 +23152,7 @@
       <c r="AH560" s="4"/>
     </row>
     <row r="561" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A561" s="29">
+      <c r="A561" s="28">
         <v>560</v>
       </c>
       <c r="B561" s="6" t="s">
@@ -23455,15 +23163,12 @@
       <c r="E561" s="18"/>
       <c r="F561" s="18"/>
       <c r="G561" s="18"/>
-      <c r="H561" s="18"/>
-      <c r="I561" s="18"/>
-      <c r="J561" s="4" t="s">
+      <c r="H561" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N561" s="4" t="s">
+      <c r="O561" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O561" s="19"/>
       <c r="P561" s="6" t="s">
         <v>15</v>
       </c>
@@ -23487,7 +23192,7 @@
       <c r="AH561" s="4"/>
     </row>
     <row r="562" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A562" s="29">
+      <c r="A562" s="28">
         <v>561</v>
       </c>
       <c r="B562" s="6" t="s">
@@ -23498,15 +23203,12 @@
       <c r="E562" s="18"/>
       <c r="F562" s="18"/>
       <c r="G562" s="18"/>
-      <c r="H562" s="18"/>
-      <c r="I562" s="18"/>
-      <c r="J562" s="4" t="s">
+      <c r="H562" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N562" s="4" t="s">
+      <c r="O562" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O562" s="19"/>
       <c r="P562" s="6" t="s">
         <v>15</v>
       </c>
@@ -23530,7 +23232,7 @@
       <c r="AH562" s="4"/>
     </row>
     <row r="563" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A563" s="29">
+      <c r="A563" s="28">
         <v>562</v>
       </c>
       <c r="B563" s="6" t="s">
@@ -23541,15 +23243,15 @@
       <c r="E563" s="18"/>
       <c r="F563" s="18"/>
       <c r="G563" s="18"/>
-      <c r="H563" s="18"/>
-      <c r="I563" s="18"/>
-      <c r="J563" s="4" t="s">
+      <c r="H563" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N563" s="4" t="s">
+      <c r="L563" t="s">
+        <v>36</v>
+      </c>
+      <c r="O563" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O563" s="19"/>
       <c r="P563" s="6" t="s">
         <v>15</v>
       </c>
@@ -23573,7 +23275,7 @@
       <c r="AH563" s="4"/>
     </row>
     <row r="564" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A564" s="29">
+      <c r="A564" s="28">
         <v>563</v>
       </c>
       <c r="B564" s="6" t="s">
@@ -23583,15 +23285,12 @@
       <c r="D564" s="18"/>
       <c r="E564" s="18"/>
       <c r="F564" s="18"/>
-      <c r="G564" s="18"/>
-      <c r="H564" s="18"/>
-      <c r="I564" s="4" t="s">
+      <c r="G564" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N564" s="4" t="s">
+      <c r="O564" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O564" s="19"/>
       <c r="P564" s="6" t="s">
         <v>15</v>
       </c>
@@ -23615,7 +23314,7 @@
       <c r="AH564" s="4"/>
     </row>
     <row r="565" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A565" s="29">
+      <c r="A565" s="28">
         <v>564</v>
       </c>
       <c r="B565" s="6" t="s">
@@ -23625,16 +23324,16 @@
       <c r="D565" s="18"/>
       <c r="E565" s="18"/>
       <c r="F565" s="18"/>
-      <c r="G565" s="18"/>
-      <c r="H565" s="18"/>
-      <c r="I565" s="4" t="s">
+      <c r="G565" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M565" s="4" t="s">
+      <c r="K565" t="s">
+        <v>36</v>
+      </c>
+      <c r="N565" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N565" s="18"/>
-      <c r="O565" s="19"/>
+      <c r="O565" s="18"/>
       <c r="P565" s="6" t="s">
         <v>15</v>
       </c>
@@ -23658,7 +23357,7 @@
       <c r="AH565" s="4"/>
     </row>
     <row r="566" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A566" s="29">
+      <c r="A566" s="28">
         <v>565</v>
       </c>
       <c r="B566" s="6" t="s">
@@ -23668,16 +23367,13 @@
       <c r="D566" s="18"/>
       <c r="E566" s="18"/>
       <c r="F566" s="18"/>
-      <c r="G566" s="18"/>
-      <c r="H566" s="18"/>
-      <c r="I566" s="4" t="s">
+      <c r="G566" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M566" s="4" t="s">
+      <c r="N566" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N566" s="18"/>
-      <c r="O566" s="19"/>
+      <c r="O566" s="18"/>
       <c r="P566" s="6" t="s">
         <v>15</v>
       </c>
@@ -23701,7 +23397,7 @@
       <c r="AH566" s="4"/>
     </row>
     <row r="567" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A567" s="29">
+      <c r="A567" s="28">
         <v>566</v>
       </c>
       <c r="B567" s="6" t="s">
@@ -23711,16 +23407,16 @@
       <c r="D567" s="18"/>
       <c r="E567" s="18"/>
       <c r="F567" s="18"/>
-      <c r="G567" s="18"/>
-      <c r="H567" s="18"/>
-      <c r="I567" s="4" t="s">
+      <c r="G567" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M567" s="4" t="s">
+      <c r="K567" t="s">
+        <v>36</v>
+      </c>
+      <c r="N567" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N567" s="18"/>
-      <c r="O567" s="19"/>
+      <c r="O567" s="18"/>
       <c r="P567" s="6" t="s">
         <v>15</v>
       </c>
@@ -23744,7 +23440,7 @@
       <c r="AH567" s="4"/>
     </row>
     <row r="568" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A568" s="29">
+      <c r="A568" s="28">
         <v>567</v>
       </c>
       <c r="B568" s="6" t="s">
@@ -23753,19 +23449,16 @@
       <c r="C568" s="17"/>
       <c r="D568" s="18"/>
       <c r="E568" s="18"/>
-      <c r="F568" s="18"/>
-      <c r="G568" s="18"/>
-      <c r="H568" s="4" t="s">
+      <c r="F568" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J568" s="4"/>
+      <c r="H568" s="4"/>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="4" t="s">
+      <c r="N568" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N568" s="18"/>
-      <c r="O568" s="19"/>
+      <c r="O568" s="18"/>
       <c r="P568" s="6" t="s">
         <v>15</v>
       </c>
@@ -23789,7 +23482,7 @@
       <c r="AH568" s="4"/>
     </row>
     <row r="569" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A569" s="29">
+      <c r="A569" s="28">
         <v>568</v>
       </c>
       <c r="B569" s="6" t="s">
@@ -23798,19 +23491,16 @@
       <c r="C569" s="17"/>
       <c r="D569" s="18"/>
       <c r="E569" s="18"/>
-      <c r="F569" s="18"/>
-      <c r="G569" s="18"/>
-      <c r="H569" s="4" t="s">
+      <c r="F569" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J569" s="4"/>
+      <c r="H569" s="4"/>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
-      <c r="M569" s="4" t="s">
+      <c r="N569" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N569" s="18"/>
-      <c r="O569" s="19"/>
+      <c r="O569" s="18"/>
       <c r="P569" s="6" t="s">
         <v>15</v>
       </c>
@@ -23834,7 +23524,7 @@
       <c r="AH569" s="4"/>
     </row>
     <row r="570" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A570" s="29">
+      <c r="A570" s="28">
         <v>569</v>
       </c>
       <c r="B570" s="6" t="s">
@@ -23843,23 +23533,20 @@
       <c r="C570" s="17"/>
       <c r="D570" s="18"/>
       <c r="E570" s="18"/>
-      <c r="F570" s="18"/>
-      <c r="G570" s="18"/>
-      <c r="H570" s="4" t="s">
+      <c r="F570" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J570" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K570" s="26"/>
+      <c r="K570" s="25"/>
       <c r="L570" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M570" s="4" t="s">
+      <c r="N570" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N570" s="18"/>
-      <c r="O570" s="19"/>
+      <c r="O570" s="18"/>
       <c r="P570" s="6" t="s">
         <v>15</v>
       </c>
@@ -23883,7 +23570,7 @@
       <c r="AH570" s="4"/>
     </row>
     <row r="571" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A571" s="29">
+      <c r="A571" s="28">
         <v>570</v>
       </c>
       <c r="B571" s="6" t="s">
@@ -23923,7 +23610,7 @@
       <c r="AH571" s="4"/>
     </row>
     <row r="572" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A572" s="29">
+      <c r="A572" s="28">
         <v>571</v>
       </c>
       <c r="B572" s="6" t="s">
@@ -23963,7 +23650,7 @@
       <c r="AH572" s="4"/>
     </row>
     <row r="573" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A573" s="29">
+      <c r="A573" s="28">
         <v>572</v>
       </c>
       <c r="B573" s="6" t="s">
@@ -24003,7 +23690,7 @@
       <c r="AH573" s="4"/>
     </row>
     <row r="574" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A574" s="29">
+      <c r="A574" s="28">
         <v>573</v>
       </c>
       <c r="B574" s="6" t="s">
@@ -24043,7 +23730,7 @@
       <c r="AH574" s="4"/>
     </row>
     <row r="575" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A575" s="29">
+      <c r="A575" s="28">
         <v>574</v>
       </c>
       <c r="B575" s="6" t="s">
@@ -24083,7 +23770,7 @@
       <c r="AH575" s="4"/>
     </row>
     <row r="576" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A576" s="29">
+      <c r="A576" s="28">
         <v>575</v>
       </c>
       <c r="B576" s="6" t="s">
@@ -24123,7 +23810,7 @@
       <c r="AH576" s="4"/>
     </row>
     <row r="577" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A577" s="29">
+      <c r="A577" s="28">
         <v>576</v>
       </c>
       <c r="B577" s="6" t="s">
@@ -24163,7 +23850,7 @@
       <c r="AH577" s="4"/>
     </row>
     <row r="578" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A578" s="29">
+      <c r="A578" s="28">
         <v>577</v>
       </c>
       <c r="B578" s="6" t="s">
@@ -24203,7 +23890,7 @@
       <c r="AH578" s="4"/>
     </row>
     <row r="579" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A579" s="29">
+      <c r="A579" s="28">
         <v>578</v>
       </c>
       <c r="B579" s="6" t="s">
@@ -24243,7 +23930,7 @@
       <c r="AH579" s="4"/>
     </row>
     <row r="580" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A580" s="29">
+      <c r="A580" s="28">
         <v>579</v>
       </c>
       <c r="B580" s="6" t="s">
@@ -24283,7 +23970,7 @@
       <c r="AH580" s="4"/>
     </row>
     <row r="581" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A581" s="29">
+      <c r="A581" s="28">
         <v>580</v>
       </c>
       <c r="B581" s="6" t="s">
@@ -24323,7 +24010,7 @@
       <c r="AH581" s="4"/>
     </row>
     <row r="582" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A582" s="29">
+      <c r="A582" s="28">
         <v>581</v>
       </c>
       <c r="B582" s="6" t="s">
@@ -24363,7 +24050,7 @@
       <c r="AH582" s="4"/>
     </row>
     <row r="583" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A583" s="29">
+      <c r="A583" s="28">
         <v>582</v>
       </c>
       <c r="B583" s="6" t="s">
@@ -24403,7 +24090,7 @@
       <c r="AH583" s="4"/>
     </row>
     <row r="584" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A584" s="29">
+      <c r="A584" s="28">
         <v>583</v>
       </c>
       <c r="B584" s="6" t="s">
@@ -24443,7 +24130,7 @@
       <c r="AH584" s="4"/>
     </row>
     <row r="585" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A585" s="29">
+      <c r="A585" s="28">
         <v>584</v>
       </c>
       <c r="B585" s="6" t="s">
@@ -24483,7 +24170,7 @@
       <c r="AH585" s="4"/>
     </row>
     <row r="586" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A586" s="29">
+      <c r="A586" s="28">
         <v>585</v>
       </c>
       <c r="B586" s="6" t="s">
@@ -24523,7 +24210,7 @@
       <c r="AH586" s="4"/>
     </row>
     <row r="587" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A587" s="29">
+      <c r="A587" s="28">
         <v>586</v>
       </c>
       <c r="B587" s="6" t="s">
@@ -24563,7 +24250,7 @@
       <c r="AH587" s="4"/>
     </row>
     <row r="588" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A588" s="29">
+      <c r="A588" s="28">
         <v>587</v>
       </c>
       <c r="B588" s="6" t="s">
@@ -24603,7 +24290,7 @@
       <c r="AH588" s="4"/>
     </row>
     <row r="589" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A589" s="29">
+      <c r="A589" s="28">
         <v>588</v>
       </c>
       <c r="B589" s="6" t="s">
@@ -24643,7 +24330,7 @@
       <c r="AH589" s="4"/>
     </row>
     <row r="590" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A590" s="29">
+      <c r="A590" s="28">
         <v>589</v>
       </c>
       <c r="B590" s="6" t="s">
@@ -24683,7 +24370,7 @@
       <c r="AH590" s="4"/>
     </row>
     <row r="591" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A591" s="29">
+      <c r="A591" s="28">
         <v>590</v>
       </c>
       <c r="B591" s="6" t="s">
@@ -24723,7 +24410,7 @@
       <c r="AH591" s="4"/>
     </row>
     <row r="592" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A592" s="29">
+      <c r="A592" s="28">
         <v>591</v>
       </c>
       <c r="B592" s="6" t="s">
@@ -24763,7 +24450,7 @@
       <c r="AH592" s="4"/>
     </row>
     <row r="593" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A593" s="29">
+      <c r="A593" s="28">
         <v>592</v>
       </c>
       <c r="B593" s="6" t="s">
@@ -24803,7 +24490,7 @@
       <c r="AH593" s="4"/>
     </row>
     <row r="594" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A594" s="29">
+      <c r="A594" s="28">
         <v>593</v>
       </c>
       <c r="B594" s="6" t="s">
@@ -24843,7 +24530,7 @@
       <c r="AH594" s="4"/>
     </row>
     <row r="595" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A595" s="29">
+      <c r="A595" s="28">
         <v>594</v>
       </c>
       <c r="B595" s="6" t="s">
@@ -24883,7 +24570,7 @@
       <c r="AH595" s="4"/>
     </row>
     <row r="596" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A596" s="29">
+      <c r="A596" s="28">
         <v>595</v>
       </c>
       <c r="B596" s="6" t="s">
@@ -24923,7 +24610,7 @@
       <c r="AH596" s="4"/>
     </row>
     <row r="597" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A597" s="29">
+      <c r="A597" s="28">
         <v>596</v>
       </c>
       <c r="B597" s="6" t="s">
@@ -24963,7 +24650,7 @@
       <c r="AH597" s="4"/>
     </row>
     <row r="598" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A598" s="29">
+      <c r="A598" s="28">
         <v>597</v>
       </c>
       <c r="B598" s="6" t="s">
@@ -25003,7 +24690,7 @@
       <c r="AH598" s="4"/>
     </row>
     <row r="599" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A599" s="29">
+      <c r="A599" s="28">
         <v>598</v>
       </c>
       <c r="B599" s="6" t="s">
@@ -25043,7 +24730,7 @@
       <c r="AH599" s="4"/>
     </row>
     <row r="600" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A600" s="29">
+      <c r="A600" s="28">
         <v>599</v>
       </c>
       <c r="B600" s="6" t="s">
@@ -25083,7 +24770,7 @@
       <c r="AH600" s="4"/>
     </row>
     <row r="601" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A601" s="29">
+      <c r="A601" s="28">
         <v>600</v>
       </c>
       <c r="B601" s="6" t="s">
@@ -25123,7 +24810,7 @@
       <c r="AH601" s="4"/>
     </row>
     <row r="602" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A602" s="29">
+      <c r="A602" s="28">
         <v>601</v>
       </c>
       <c r="B602" s="6" t="s">
@@ -25163,7 +24850,7 @@
       <c r="AH602" s="4"/>
     </row>
     <row r="603" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A603" s="29">
+      <c r="A603" s="28">
         <v>602</v>
       </c>
       <c r="B603" s="6" t="s">
@@ -25203,7 +24890,7 @@
       <c r="AH603" s="4"/>
     </row>
     <row r="604" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A604" s="29">
+      <c r="A604" s="28">
         <v>603</v>
       </c>
       <c r="B604" s="6" t="s">
@@ -25243,7 +24930,7 @@
       <c r="AH604" s="4"/>
     </row>
     <row r="605" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A605" s="29">
+      <c r="A605" s="28">
         <v>604</v>
       </c>
       <c r="B605" s="6" t="s">
@@ -25283,7 +24970,7 @@
       <c r="AH605" s="4"/>
     </row>
     <row r="606" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A606" s="29">
+      <c r="A606" s="28">
         <v>605</v>
       </c>
       <c r="B606" s="6" t="s">
@@ -25323,7 +25010,7 @@
       <c r="AH606" s="4"/>
     </row>
     <row r="607" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A607" s="29">
+      <c r="A607" s="28">
         <v>606</v>
       </c>
       <c r="B607" s="6" t="s">
@@ -25363,7 +25050,7 @@
       <c r="AH607" s="4"/>
     </row>
     <row r="608" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A608" s="29">
+      <c r="A608" s="28">
         <v>607</v>
       </c>
       <c r="B608" s="6" t="s">
@@ -25403,7 +25090,7 @@
       <c r="AH608" s="4"/>
     </row>
     <row r="609" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A609" s="29">
+      <c r="A609" s="28">
         <v>608</v>
       </c>
       <c r="B609" s="6" t="s">
@@ -25443,7 +25130,7 @@
       <c r="AH609" s="4"/>
     </row>
     <row r="610" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A610" s="29">
+      <c r="A610" s="28">
         <v>609</v>
       </c>
       <c r="B610" s="6" t="s">
@@ -25483,7 +25170,7 @@
       <c r="AH610" s="4"/>
     </row>
     <row r="611" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A611" s="29">
+      <c r="A611" s="28">
         <v>610</v>
       </c>
       <c r="B611" s="6" t="s">
@@ -25523,7 +25210,7 @@
       <c r="AH611" s="4"/>
     </row>
     <row r="612" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A612" s="29">
+      <c r="A612" s="28">
         <v>611</v>
       </c>
       <c r="B612" s="6" t="s">
@@ -25563,7 +25250,7 @@
       <c r="AH612" s="4"/>
     </row>
     <row r="613" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A613" s="29">
+      <c r="A613" s="28">
         <v>612</v>
       </c>
       <c r="B613" s="6" t="s">
@@ -25603,7 +25290,7 @@
       <c r="AH613" s="4"/>
     </row>
     <row r="614" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A614" s="29">
+      <c r="A614" s="28">
         <v>613</v>
       </c>
       <c r="B614" s="6" t="s">
@@ -25622,7 +25309,9 @@
       <c r="M614" s="13"/>
       <c r="N614" s="13"/>
       <c r="O614" s="16"/>
-      <c r="P614" s="14"/>
+      <c r="P614" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="Q614" s="4"/>
       <c r="R614" s="4"/>
       <c r="S614" s="4"/>
@@ -25643,7 +25332,7 @@
       <c r="AH614" s="4"/>
     </row>
     <row r="615" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A615" s="29">
+      <c r="A615" s="28">
         <v>614</v>
       </c>
       <c r="B615" s="6" t="s">
@@ -25683,7 +25372,7 @@
       <c r="AH615" s="4"/>
     </row>
     <row r="616" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A616" s="29">
+      <c r="A616" s="28">
         <v>615</v>
       </c>
       <c r="B616" s="6" t="s">
@@ -25723,7 +25412,7 @@
       <c r="AH616" s="4"/>
     </row>
     <row r="617" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A617" s="29">
+      <c r="A617" s="28">
         <v>616</v>
       </c>
       <c r="B617" s="6" t="s">
@@ -25763,7 +25452,7 @@
       <c r="AH617" s="4"/>
     </row>
     <row r="618" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A618" s="29">
+      <c r="A618" s="28">
         <v>617</v>
       </c>
       <c r="B618" s="6" t="s">
@@ -25803,7 +25492,7 @@
       <c r="AH618" s="4"/>
     </row>
     <row r="619" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A619" s="29">
+      <c r="A619" s="28">
         <v>618</v>
       </c>
       <c r="B619" s="6" t="s">
@@ -25843,7 +25532,7 @@
       <c r="AH619" s="4"/>
     </row>
     <row r="620" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A620" s="29">
+      <c r="A620" s="28">
         <v>619</v>
       </c>
       <c r="B620" s="6" t="s">
@@ -25883,7 +25572,7 @@
       <c r="AH620" s="4"/>
     </row>
     <row r="621" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A621" s="29">
+      <c r="A621" s="28">
         <v>620</v>
       </c>
       <c r="B621" s="6" t="s">
@@ -25923,7 +25612,7 @@
       <c r="AH621" s="4"/>
     </row>
     <row r="622" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A622" s="29">
+      <c r="A622" s="28">
         <v>621</v>
       </c>
       <c r="B622" s="6" t="s">
@@ -25963,7 +25652,7 @@
       <c r="AH622" s="4"/>
     </row>
     <row r="623" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A623" s="29">
+      <c r="A623" s="28">
         <v>622</v>
       </c>
       <c r="B623" s="6" t="s">
@@ -26003,7 +25692,7 @@
       <c r="AH623" s="4"/>
     </row>
     <row r="624" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A624" s="29">
+      <c r="A624" s="28">
         <v>623</v>
       </c>
       <c r="B624" s="6"/>
@@ -26041,7 +25730,7 @@
       <c r="AH624" s="4"/>
     </row>
     <row r="625" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A625" s="29">
+      <c r="A625" s="28">
         <v>624</v>
       </c>
       <c r="B625" s="6"/>
@@ -26079,7 +25768,7 @@
       <c r="AH625" s="4"/>
     </row>
     <row r="626" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A626" s="29">
+      <c r="A626" s="28">
         <v>625</v>
       </c>
       <c r="B626" s="6"/>
@@ -26117,7 +25806,7 @@
       <c r="AH626" s="4"/>
     </row>
     <row r="627" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A627" s="29">
+      <c r="A627" s="28">
         <v>626</v>
       </c>
       <c r="B627" s="6"/>
@@ -26155,7 +25844,7 @@
       <c r="AH627" s="4"/>
     </row>
     <row r="628" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A628" s="29">
+      <c r="A628" s="28">
         <v>627</v>
       </c>
       <c r="B628" s="6"/>
@@ -26193,7 +25882,7 @@
       <c r="AH628" s="4"/>
     </row>
     <row r="629" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A629" s="29">
+      <c r="A629" s="28">
         <v>628</v>
       </c>
       <c r="B629" s="6"/>
@@ -26231,7 +25920,7 @@
       <c r="AH629" s="4"/>
     </row>
     <row r="630" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A630" s="29">
+      <c r="A630" s="28">
         <v>629</v>
       </c>
       <c r="B630" s="6"/>
@@ -26248,9 +25937,7 @@
       <c r="M630" s="4"/>
       <c r="N630" s="4"/>
       <c r="O630" s="5"/>
-      <c r="P630" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="P630" s="6"/>
       <c r="Q630" s="4"/>
       <c r="R630" s="4"/>
       <c r="S630" s="4"/>
@@ -26271,7 +25958,7 @@
       <c r="AH630" s="4"/>
     </row>
     <row r="631" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A631" s="29">
+      <c r="A631" s="28">
         <v>630</v>
       </c>
       <c r="B631" s="6"/>
@@ -26311,7 +25998,7 @@
       <c r="AH631" s="4"/>
     </row>
     <row r="632" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A632" s="29">
+      <c r="A632" s="28">
         <v>631</v>
       </c>
       <c r="B632" s="6"/>
@@ -26349,7 +26036,7 @@
       <c r="AH632" s="4"/>
     </row>
     <row r="633" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A633" s="29">
+      <c r="A633" s="28">
         <v>632</v>
       </c>
       <c r="B633" s="6"/>
@@ -26386,7 +26073,7 @@
       <c r="AH633" s="4"/>
     </row>
     <row r="634" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A634" s="29">
+      <c r="A634" s="28">
         <v>633</v>
       </c>
       <c r="B634" s="6"/>
@@ -26424,7 +26111,7 @@
       <c r="AH634" s="4"/>
     </row>
     <row r="635" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A635" s="29">
+      <c r="A635" s="28">
         <v>634</v>
       </c>
       <c r="B635" s="6"/>
@@ -26462,7 +26149,7 @@
       <c r="AH635" s="4"/>
     </row>
     <row r="636" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A636" s="29">
+      <c r="A636" s="28">
         <v>635</v>
       </c>
       <c r="B636" s="6"/>
@@ -26500,7 +26187,7 @@
       <c r="AH636" s="4"/>
     </row>
     <row r="637" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A637" s="29">
+      <c r="A637" s="28">
         <v>636</v>
       </c>
       <c r="B637" s="6"/>
@@ -26538,7 +26225,7 @@
       <c r="AH637" s="4"/>
     </row>
     <row r="638" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A638" s="29">
+      <c r="A638" s="28">
         <v>637</v>
       </c>
       <c r="B638" s="6"/>
@@ -26576,7 +26263,7 @@
       <c r="AH638" s="4"/>
     </row>
     <row r="639" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A639" s="29">
+      <c r="A639" s="28">
         <v>638</v>
       </c>
       <c r="B639" s="6"/>
@@ -26607,7 +26294,7 @@
       <c r="AH639" s="4"/>
     </row>
     <row r="640" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A640" s="29">
+      <c r="A640" s="28">
         <v>639</v>
       </c>
       <c r="B640" s="6"/>
@@ -26647,7 +26334,7 @@
       <c r="AH640" s="4"/>
     </row>
     <row r="641" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A641" s="29">
+      <c r="A641" s="28">
         <v>640</v>
       </c>
       <c r="B641" s="6"/>
@@ -26685,7 +26372,7 @@
       <c r="AH641" s="4"/>
     </row>
     <row r="642" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A642" s="29">
+      <c r="A642" s="28">
         <v>641</v>
       </c>
       <c r="B642" s="6"/>
@@ -26723,7 +26410,7 @@
       <c r="AH642" s="4"/>
     </row>
     <row r="643" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A643" s="29">
+      <c r="A643" s="28">
         <v>642</v>
       </c>
       <c r="B643" s="6"/>
@@ -26761,7 +26448,7 @@
       <c r="AH643" s="4"/>
     </row>
     <row r="644" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A644" s="29">
+      <c r="A644" s="28">
         <v>643</v>
       </c>
       <c r="B644" s="6"/>
@@ -26801,7 +26488,7 @@
       <c r="AH644" s="4"/>
     </row>
     <row r="645" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A645" s="29">
+      <c r="A645" s="28">
         <v>644</v>
       </c>
       <c r="B645" s="6"/>
@@ -26839,7 +26526,7 @@
       <c r="AH645" s="4"/>
     </row>
     <row r="646" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A646" s="29">
+      <c r="A646" s="28">
         <v>645</v>
       </c>
       <c r="B646" s="6"/>
@@ -26877,7 +26564,7 @@
       <c r="AH646" s="4"/>
     </row>
     <row r="647" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A647" s="29">
+      <c r="A647" s="28">
         <v>646</v>
       </c>
       <c r="B647" s="6"/>
@@ -26915,7 +26602,7 @@
       <c r="AH647" s="4"/>
     </row>
     <row r="648" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A648" s="29">
+      <c r="A648" s="28">
         <v>647</v>
       </c>
       <c r="B648" s="6"/>
@@ -26953,7 +26640,7 @@
       <c r="AH648" s="4"/>
     </row>
     <row r="649" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A649" s="29">
+      <c r="A649" s="28">
         <v>648</v>
       </c>
       <c r="B649" s="6"/>
@@ -26965,8 +26652,7 @@
       <c r="F649" s="18"/>
       <c r="G649" s="18"/>
       <c r="H649" s="18"/>
-      <c r="I649" s="18"/>
-      <c r="J649" s="4" t="s">
+      <c r="I649" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K649" s="4"/>
@@ -26995,7 +26681,7 @@
       <c r="AH649" s="4"/>
     </row>
     <row r="650" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A650" s="29">
+      <c r="A650" s="28">
         <v>649</v>
       </c>
       <c r="B650" s="6"/>
@@ -27033,7 +26719,7 @@
       <c r="AH650" s="4"/>
     </row>
     <row r="651" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A651" s="29">
+      <c r="A651" s="28">
         <v>650</v>
       </c>
       <c r="B651" s="6"/>
@@ -27071,7 +26757,7 @@
       <c r="AH651" s="4"/>
     </row>
     <row r="652" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A652" s="29">
+      <c r="A652" s="28">
         <v>651</v>
       </c>
       <c r="B652" s="6"/>
@@ -27087,7 +26773,7 @@
       <c r="L652" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M652" s="26"/>
+      <c r="M652" s="25"/>
       <c r="N652" s="4" t="s">
         <v>26</v>
       </c>
@@ -27113,7 +26799,7 @@
       <c r="AH652" s="4"/>
     </row>
     <row r="653" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A653" s="29">
+      <c r="A653" s="28">
         <v>652</v>
       </c>
       <c r="B653" s="6"/>
@@ -27151,7 +26837,7 @@
       <c r="AH653" s="4"/>
     </row>
     <row r="654" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A654" s="29">
+      <c r="A654" s="28">
         <v>653</v>
       </c>
       <c r="B654" s="6"/>
@@ -27191,7 +26877,7 @@
       <c r="AH654" s="4"/>
     </row>
     <row r="655" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A655" s="29">
+      <c r="A655" s="28">
         <v>654</v>
       </c>
       <c r="B655" s="6"/>
@@ -27229,7 +26915,7 @@
       <c r="AH655" s="4"/>
     </row>
     <row r="656" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A656" s="29">
+      <c r="A656" s="28">
         <v>655</v>
       </c>
       <c r="B656" s="6"/>
@@ -27267,7 +26953,7 @@
       <c r="AH656" s="4"/>
     </row>
     <row r="657" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A657" s="29">
+      <c r="A657" s="28">
         <v>656</v>
       </c>
       <c r="B657" s="6" t="s">
@@ -27313,7 +26999,7 @@
       <c r="AH657" s="4"/>
     </row>
     <row r="658" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A658" s="29">
+      <c r="A658" s="28">
         <v>657</v>
       </c>
       <c r="B658" s="6"/>
@@ -27351,7 +27037,7 @@
       <c r="AH658" s="4"/>
     </row>
     <row r="659" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A659" s="29">
+      <c r="A659" s="28">
         <v>658</v>
       </c>
       <c r="B659" s="6"/>
@@ -27388,7 +27074,7 @@
       <c r="AH659" s="4"/>
     </row>
     <row r="660" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A660" s="29">
+      <c r="A660" s="28">
         <v>659</v>
       </c>
       <c r="B660" s="6"/>
@@ -27426,7 +27112,7 @@
       <c r="AH660" s="4"/>
     </row>
     <row r="661" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A661" s="29">
+      <c r="A661" s="28">
         <v>660</v>
       </c>
       <c r="B661" s="6"/>
@@ -27466,7 +27152,7 @@
       <c r="AH661" s="4"/>
     </row>
     <row r="662" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A662" s="29">
+      <c r="A662" s="28">
         <v>661</v>
       </c>
       <c r="B662" s="6"/>
@@ -27504,7 +27190,7 @@
       <c r="AH662" s="4"/>
     </row>
     <row r="663" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A663" s="29">
+      <c r="A663" s="28">
         <v>662</v>
       </c>
       <c r="B663" s="6"/>
@@ -27542,7 +27228,7 @@
       <c r="AH663" s="4"/>
     </row>
     <row r="664" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A664" s="29">
+      <c r="A664" s="28">
         <v>663</v>
       </c>
       <c r="B664" s="6"/>
@@ -27580,7 +27266,7 @@
       <c r="AH664" s="4"/>
     </row>
     <row r="665" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A665" s="29">
+      <c r="A665" s="28">
         <v>664</v>
       </c>
       <c r="B665" s="6"/>
@@ -27618,7 +27304,7 @@
       <c r="AH665" s="4"/>
     </row>
     <row r="666" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A666" s="29">
+      <c r="A666" s="28">
         <v>665</v>
       </c>
       <c r="B666" s="6"/>
@@ -27656,7 +27342,7 @@
       <c r="AH666" s="4"/>
     </row>
     <row r="667" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A667" s="29">
+      <c r="A667" s="28">
         <v>666</v>
       </c>
       <c r="B667" s="6"/>
@@ -27665,7 +27351,7 @@
       <c r="E667" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F667" s="26"/>
+      <c r="F667" s="25"/>
       <c r="G667" s="4" t="s">
         <v>26</v>
       </c>
@@ -27698,7 +27384,7 @@
       <c r="AH667" s="4"/>
     </row>
     <row r="668" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A668" s="29">
+      <c r="A668" s="28">
         <v>667</v>
       </c>
       <c r="B668" s="6"/>
@@ -27736,7 +27422,7 @@
       <c r="AH668" s="4"/>
     </row>
     <row r="669" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A669" s="29">
+      <c r="A669" s="28">
         <v>668</v>
       </c>
       <c r="B669" s="6"/>
@@ -27776,7 +27462,7 @@
       <c r="AH669" s="4"/>
     </row>
     <row r="670" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A670" s="29">
+      <c r="A670" s="28">
         <v>669</v>
       </c>
       <c r="B670" s="6"/>
@@ -27814,7 +27500,7 @@
       <c r="AH670" s="4"/>
     </row>
     <row r="671" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A671" s="29">
+      <c r="A671" s="28">
         <v>670</v>
       </c>
       <c r="B671" s="6"/>
@@ -27860,7 +27546,7 @@
       <c r="AH671" s="4"/>
     </row>
     <row r="672" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A672" s="29">
+      <c r="A672" s="28">
         <v>671</v>
       </c>
       <c r="B672" s="6"/>
@@ -27898,7 +27584,7 @@
       <c r="AH672" s="4"/>
     </row>
     <row r="673" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A673" s="29">
+      <c r="A673" s="28">
         <v>672</v>
       </c>
       <c r="B673" s="6"/>
@@ -27936,7 +27622,7 @@
       <c r="AH673" s="4"/>
     </row>
     <row r="674" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A674" s="29">
+      <c r="A674" s="28">
         <v>673</v>
       </c>
       <c r="B674" s="6"/>
@@ -27974,7 +27660,7 @@
       <c r="AH674" s="4"/>
     </row>
     <row r="675" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A675" s="29">
+      <c r="A675" s="28">
         <v>674</v>
       </c>
       <c r="B675" s="6"/>
@@ -28012,7 +27698,7 @@
       <c r="AH675" s="4"/>
     </row>
     <row r="676" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A676" s="29">
+      <c r="A676" s="28">
         <v>675</v>
       </c>
       <c r="B676" s="6"/>
@@ -28050,7 +27736,7 @@
       <c r="AH676" s="4"/>
     </row>
     <row r="677" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A677" s="29">
+      <c r="A677" s="28">
         <v>676</v>
       </c>
       <c r="B677" s="6"/>
@@ -28088,7 +27774,7 @@
       <c r="AH677" s="4"/>
     </row>
     <row r="678" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A678" s="29">
+      <c r="A678" s="28">
         <v>677</v>
       </c>
       <c r="B678" s="6"/>
@@ -28126,7 +27812,7 @@
       <c r="AH678" s="4"/>
     </row>
     <row r="679" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A679" s="29">
+      <c r="A679" s="28">
         <v>678</v>
       </c>
       <c r="B679" s="6"/>
@@ -28164,7 +27850,7 @@
       <c r="AH679" s="4"/>
     </row>
     <row r="680" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A680" s="29">
+      <c r="A680" s="28">
         <v>679</v>
       </c>
       <c r="B680" s="6"/>
@@ -28202,7 +27888,7 @@
       <c r="AH680" s="4"/>
     </row>
     <row r="681" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A681" s="29">
+      <c r="A681" s="28">
         <v>680</v>
       </c>
       <c r="B681" s="6"/>
@@ -28240,7 +27926,7 @@
       <c r="AH681" s="4"/>
     </row>
     <row r="682" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A682" s="29">
+      <c r="A682" s="28">
         <v>681</v>
       </c>
       <c r="B682" s="6"/>
@@ -28278,7 +27964,7 @@
       <c r="AH682" s="4"/>
     </row>
     <row r="683" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A683" s="29">
+      <c r="A683" s="28">
         <v>682</v>
       </c>
       <c r="B683" s="6" t="s">
@@ -28318,7 +28004,7 @@
       <c r="AH683" s="4"/>
     </row>
     <row r="684" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A684" s="29">
+      <c r="A684" s="28">
         <v>683</v>
       </c>
       <c r="B684" s="6" t="s">
@@ -28358,7 +28044,7 @@
       <c r="AH684" s="4"/>
     </row>
     <row r="685" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A685" s="29">
+      <c r="A685" s="28">
         <v>684</v>
       </c>
       <c r="B685" s="6" t="s">
@@ -28398,7 +28084,7 @@
       <c r="AH685" s="4"/>
     </row>
     <row r="686" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A686" s="29">
+      <c r="A686" s="28">
         <v>685</v>
       </c>
       <c r="B686" s="6" t="s">
@@ -28438,7 +28124,7 @@
       <c r="AH686" s="4"/>
     </row>
     <row r="687" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A687" s="29">
+      <c r="A687" s="28">
         <v>686</v>
       </c>
       <c r="B687" s="6" t="s">
@@ -28478,7 +28164,7 @@
       <c r="AH687" s="4"/>
     </row>
     <row r="688" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A688" s="29">
+      <c r="A688" s="28">
         <v>687</v>
       </c>
       <c r="B688" s="6" t="s">
@@ -28518,7 +28204,7 @@
       <c r="AH688" s="4"/>
     </row>
     <row r="689" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A689" s="29">
+      <c r="A689" s="28">
         <v>688</v>
       </c>
       <c r="B689" s="6" t="s">
@@ -28558,7 +28244,7 @@
       <c r="AH689" s="4"/>
     </row>
     <row r="690" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A690" s="29">
+      <c r="A690" s="28">
         <v>689</v>
       </c>
       <c r="B690" s="6" t="s">
@@ -28598,7 +28284,7 @@
       <c r="AH690" s="4"/>
     </row>
     <row r="691" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A691" s="29">
+      <c r="A691" s="28">
         <v>690</v>
       </c>
       <c r="B691" s="6" t="s">
@@ -28638,7 +28324,7 @@
       <c r="AH691" s="4"/>
     </row>
     <row r="692" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A692" s="29">
+      <c r="A692" s="28">
         <v>691</v>
       </c>
       <c r="B692" s="6" t="s">
@@ -28678,7 +28364,7 @@
       <c r="AH692" s="4"/>
     </row>
     <row r="693" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A693" s="29">
+      <c r="A693" s="28">
         <v>692</v>
       </c>
       <c r="B693" s="6" t="s">
@@ -28718,7 +28404,7 @@
       <c r="AH693" s="4"/>
     </row>
     <row r="694" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A694" s="29">
+      <c r="A694" s="28">
         <v>693</v>
       </c>
       <c r="B694" s="6" t="s">
@@ -28758,7 +28444,7 @@
       <c r="AH694" s="4"/>
     </row>
     <row r="695" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A695" s="29">
+      <c r="A695" s="28">
         <v>694</v>
       </c>
       <c r="B695" s="6" t="s">
@@ -28798,7 +28484,7 @@
       <c r="AH695" s="4"/>
     </row>
     <row r="696" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A696" s="29">
+      <c r="A696" s="28">
         <v>695</v>
       </c>
       <c r="B696" s="6" t="s">
@@ -28838,7 +28524,7 @@
       <c r="AH696" s="4"/>
     </row>
     <row r="697" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A697" s="29">
+      <c r="A697" s="28">
         <v>696</v>
       </c>
       <c r="B697" s="6" t="s">
@@ -28878,7 +28564,7 @@
       <c r="AH697" s="4"/>
     </row>
     <row r="698" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A698" s="29">
+      <c r="A698" s="28">
         <v>697</v>
       </c>
       <c r="B698" s="6" t="s">
@@ -28918,7 +28604,7 @@
       <c r="AH698" s="4"/>
     </row>
     <row r="699" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A699" s="29">
+      <c r="A699" s="28">
         <v>698</v>
       </c>
       <c r="B699" s="6" t="s">
@@ -28958,7 +28644,7 @@
       <c r="AH699" s="4"/>
     </row>
     <row r="700" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A700" s="29">
+      <c r="A700" s="28">
         <v>699</v>
       </c>
       <c r="B700" s="6" t="s">
@@ -28998,7 +28684,7 @@
       <c r="AH700" s="4"/>
     </row>
     <row r="701" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A701" s="29">
+      <c r="A701" s="28">
         <v>700</v>
       </c>
       <c r="B701" s="6" t="s">
@@ -29038,7 +28724,7 @@
       <c r="AH701" s="4"/>
     </row>
     <row r="702" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A702" s="29">
+      <c r="A702" s="28">
         <v>701</v>
       </c>
       <c r="B702" s="6" t="s">
@@ -29078,7 +28764,7 @@
       <c r="AH702" s="4"/>
     </row>
     <row r="703" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A703" s="29">
+      <c r="A703" s="28">
         <v>702</v>
       </c>
       <c r="B703" s="6" t="s">
@@ -29118,7 +28804,7 @@
       <c r="AH703" s="4"/>
     </row>
     <row r="704" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A704" s="29">
+      <c r="A704" s="28">
         <v>703</v>
       </c>
       <c r="B704" s="6" t="s">
@@ -29158,7 +28844,7 @@
       <c r="AH704" s="4"/>
     </row>
     <row r="705" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A705" s="29">
+      <c r="A705" s="28">
         <v>704</v>
       </c>
       <c r="B705" s="6" t="s">
@@ -29198,7 +28884,7 @@
       <c r="AH705" s="4"/>
     </row>
     <row r="706" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A706" s="29">
+      <c r="A706" s="28">
         <v>705</v>
       </c>
       <c r="B706" s="6" t="s">
@@ -29238,7 +28924,7 @@
       <c r="AH706" s="4"/>
     </row>
     <row r="707" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A707" s="29">
+      <c r="A707" s="28">
         <v>706</v>
       </c>
       <c r="B707" s="6" t="s">
@@ -29278,7 +28964,7 @@
       <c r="AH707" s="4"/>
     </row>
     <row r="708" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A708" s="29">
+      <c r="A708" s="28">
         <v>707</v>
       </c>
       <c r="B708" s="6" t="s">
@@ -29318,7 +29004,7 @@
       <c r="AH708" s="4"/>
     </row>
     <row r="709" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A709" s="29">
+      <c r="A709" s="28">
         <v>708</v>
       </c>
       <c r="B709" s="6" t="s">
@@ -29358,7 +29044,7 @@
       <c r="AH709" s="4"/>
     </row>
     <row r="710" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A710" s="29">
+      <c r="A710" s="28">
         <v>709</v>
       </c>
       <c r="B710" s="6" t="s">
@@ -29398,7 +29084,7 @@
       <c r="AH710" s="4"/>
     </row>
     <row r="711" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A711" s="29">
+      <c r="A711" s="28">
         <v>710</v>
       </c>
       <c r="B711" s="6" t="s">
@@ -29438,7 +29124,7 @@
       <c r="AH711" s="4"/>
     </row>
     <row r="712" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A712" s="29">
+      <c r="A712" s="28">
         <v>711</v>
       </c>
       <c r="B712" s="6" t="s">
@@ -29478,7 +29164,7 @@
       <c r="AH712" s="4"/>
     </row>
     <row r="713" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A713" s="29">
+      <c r="A713" s="28">
         <v>712</v>
       </c>
       <c r="B713" s="6" t="s">
@@ -29518,7 +29204,7 @@
       <c r="AH713" s="4"/>
     </row>
     <row r="714" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A714" s="29">
+      <c r="A714" s="28">
         <v>713</v>
       </c>
       <c r="B714" s="6" t="s">
@@ -29558,7 +29244,7 @@
       <c r="AH714" s="4"/>
     </row>
     <row r="715" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A715" s="29">
+      <c r="A715" s="28">
         <v>714</v>
       </c>
       <c r="B715" s="6" t="s">
@@ -29598,7 +29284,7 @@
       <c r="AH715" s="4"/>
     </row>
     <row r="716" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A716" s="29">
+      <c r="A716" s="28">
         <v>715</v>
       </c>
       <c r="B716" s="6" t="s">
@@ -29638,7 +29324,7 @@
       <c r="AH716" s="4"/>
     </row>
     <row r="717" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A717" s="29">
+      <c r="A717" s="28">
         <v>716</v>
       </c>
       <c r="B717" s="6" t="s">
@@ -29678,7 +29364,7 @@
       <c r="AH717" s="4"/>
     </row>
     <row r="718" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A718" s="29">
+      <c r="A718" s="28">
         <v>717</v>
       </c>
       <c r="B718" s="6" t="s">
@@ -29718,7 +29404,7 @@
       <c r="AH718" s="4"/>
     </row>
     <row r="719" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A719" s="29">
+      <c r="A719" s="28">
         <v>718</v>
       </c>
       <c r="B719" s="6" t="s">
@@ -29758,7 +29444,7 @@
       <c r="AH719" s="4"/>
     </row>
     <row r="720" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A720" s="29">
+      <c r="A720" s="28">
         <v>719</v>
       </c>
       <c r="B720" s="6" t="s">
@@ -29798,7 +29484,7 @@
       <c r="AH720" s="4"/>
     </row>
     <row r="721" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A721" s="29">
+      <c r="A721" s="28">
         <v>720</v>
       </c>
       <c r="B721" s="6" t="s">
@@ -29838,7 +29524,7 @@
       <c r="AH721" s="4"/>
     </row>
     <row r="722" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A722" s="29">
+      <c r="A722" s="28">
         <v>721</v>
       </c>
       <c r="B722" s="6" t="s">
@@ -29878,7 +29564,7 @@
       <c r="AH722" s="4"/>
     </row>
     <row r="723" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A723" s="29">
+      <c r="A723" s="28">
         <v>722</v>
       </c>
       <c r="B723" s="6" t="s">
@@ -29918,7 +29604,7 @@
       <c r="AH723" s="4"/>
     </row>
     <row r="724" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A724" s="29">
+      <c r="A724" s="28">
         <v>723</v>
       </c>
       <c r="B724" s="6" t="s">
@@ -29958,7 +29644,7 @@
       <c r="AH724" s="4"/>
     </row>
     <row r="725" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A725" s="29">
+      <c r="A725" s="28">
         <v>724</v>
       </c>
       <c r="B725" s="6" t="s">
@@ -29998,7 +29684,7 @@
       <c r="AH725" s="4"/>
     </row>
     <row r="726" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A726" s="29">
+      <c r="A726" s="28">
         <v>725</v>
       </c>
       <c r="B726" s="6" t="s">
@@ -30038,7 +29724,7 @@
       <c r="AH726" s="4"/>
     </row>
     <row r="727" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A727" s="29">
+      <c r="A727" s="28">
         <v>726</v>
       </c>
       <c r="B727" s="6" t="s">
@@ -30078,7 +29764,7 @@
       <c r="AH727" s="4"/>
     </row>
     <row r="728" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A728" s="29">
+      <c r="A728" s="28">
         <v>727</v>
       </c>
       <c r="B728" s="6" t="s">
@@ -30118,7 +29804,7 @@
       <c r="AH728" s="4"/>
     </row>
     <row r="729" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A729" s="29">
+      <c r="A729" s="28">
         <v>728</v>
       </c>
       <c r="B729" s="6" t="s">
@@ -30158,7 +29844,7 @@
       <c r="AH729" s="4"/>
     </row>
     <row r="730" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A730" s="29">
+      <c r="A730" s="28">
         <v>729</v>
       </c>
       <c r="B730" s="6" t="s">
@@ -30198,7 +29884,7 @@
       <c r="AH730" s="4"/>
     </row>
     <row r="731" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A731" s="29">
+      <c r="A731" s="28">
         <v>730</v>
       </c>
       <c r="B731" s="6" t="s">
@@ -30238,7 +29924,7 @@
       <c r="AH731" s="4"/>
     </row>
     <row r="732" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A732" s="29">
+      <c r="A732" s="28">
         <v>731</v>
       </c>
       <c r="B732" s="6" t="s">
@@ -30278,7 +29964,7 @@
       <c r="AH732" s="4"/>
     </row>
     <row r="733" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A733" s="29">
+      <c r="A733" s="28">
         <v>732</v>
       </c>
       <c r="B733" s="6" t="s">
@@ -30318,7 +30004,7 @@
       <c r="AH733" s="4"/>
     </row>
     <row r="734" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A734" s="29">
+      <c r="A734" s="28">
         <v>733</v>
       </c>
       <c r="B734" s="6" t="s">
@@ -30358,7 +30044,7 @@
       <c r="AH734" s="4"/>
     </row>
     <row r="735" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A735" s="29">
+      <c r="A735" s="28">
         <v>734</v>
       </c>
       <c r="B735" s="6" t="s">
@@ -30398,7 +30084,7 @@
       <c r="AH735" s="4"/>
     </row>
     <row r="736" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A736" s="29">
+      <c r="A736" s="28">
         <v>735</v>
       </c>
       <c r="B736" s="6" t="s">
@@ -30438,7 +30124,7 @@
       <c r="AH736" s="4"/>
     </row>
     <row r="737" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A737" s="29">
+      <c r="A737" s="28">
         <v>736</v>
       </c>
       <c r="B737" s="6" t="s">
@@ -30478,7 +30164,7 @@
       <c r="AH737" s="4"/>
     </row>
     <row r="738" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A738" s="29">
+      <c r="A738" s="28">
         <v>737</v>
       </c>
       <c r="B738" s="6" t="s">
@@ -30518,7 +30204,7 @@
       <c r="AH738" s="4"/>
     </row>
     <row r="739" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A739" s="29">
+      <c r="A739" s="28">
         <v>738</v>
       </c>
       <c r="B739" s="6" t="s">
@@ -30558,7 +30244,7 @@
       <c r="AH739" s="4"/>
     </row>
     <row r="740" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A740" s="29">
+      <c r="A740" s="28">
         <v>739</v>
       </c>
       <c r="B740" s="6" t="s">
@@ -30598,7 +30284,7 @@
       <c r="AH740" s="4"/>
     </row>
     <row r="741" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A741" s="29">
+      <c r="A741" s="28">
         <v>740</v>
       </c>
       <c r="B741" s="6" t="s">
@@ -30638,7 +30324,7 @@
       <c r="AH741" s="4"/>
     </row>
     <row r="742" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A742" s="29">
+      <c r="A742" s="28">
         <v>741</v>
       </c>
       <c r="B742" s="6" t="s">
@@ -30678,7 +30364,7 @@
       <c r="AH742" s="4"/>
     </row>
     <row r="743" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A743" s="29">
+      <c r="A743" s="28">
         <v>742</v>
       </c>
       <c r="B743" s="6" t="s">
@@ -30718,7 +30404,7 @@
       <c r="AH743" s="4"/>
     </row>
     <row r="744" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A744" s="29">
+      <c r="A744" s="28">
         <v>743</v>
       </c>
       <c r="B744" s="6" t="s">
@@ -30758,7 +30444,7 @@
       <c r="AH744" s="4"/>
     </row>
     <row r="745" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A745" s="29">
+      <c r="A745" s="28">
         <v>744</v>
       </c>
       <c r="B745" s="6" t="s">
@@ -30798,7 +30484,7 @@
       <c r="AH745" s="4"/>
     </row>
     <row r="746" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A746" s="29">
+      <c r="A746" s="28">
         <v>745</v>
       </c>
       <c r="B746" s="6" t="s">
@@ -30838,7 +30524,7 @@
       <c r="AH746" s="4"/>
     </row>
     <row r="747" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A747" s="29">
+      <c r="A747" s="28">
         <v>746</v>
       </c>
       <c r="B747" s="6" t="s">
@@ -30878,7 +30564,7 @@
       <c r="AH747" s="4"/>
     </row>
     <row r="748" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A748" s="29">
+      <c r="A748" s="28">
         <v>747</v>
       </c>
       <c r="B748" s="6" t="s">
@@ -30918,7 +30604,7 @@
       <c r="AH748" s="4"/>
     </row>
     <row r="749" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A749" s="29">
+      <c r="A749" s="28">
         <v>748</v>
       </c>
       <c r="B749" s="6" t="s">
@@ -30958,7 +30644,7 @@
       <c r="AH749" s="4"/>
     </row>
     <row r="750" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A750" s="29">
+      <c r="A750" s="28">
         <v>749</v>
       </c>
       <c r="B750" s="6" t="s">
@@ -30998,7 +30684,7 @@
       <c r="AH750" s="4"/>
     </row>
     <row r="751" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A751" s="30">
+      <c r="A751" s="29">
         <v>750</v>
       </c>
       <c r="B751" s="6" t="s">
@@ -31054,7 +30740,7 @@
       <c r="N752" s="10"/>
       <c r="O752" s="10"/>
       <c r="P752" s="10"/>
-      <c r="Q752" s="32"/>
+      <c r="Q752" s="31"/>
       <c r="R752" s="4"/>
       <c r="S752" s="4"/>
       <c r="T752" s="4"/>
